--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.272857802756351</v>
+        <v>7.272857802756345</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.320504917308549</v>
+        <v>8.320504917308561</v>
       </c>
       <c r="E2">
-        <v>6.240640987121644</v>
+        <v>6.24064098712161</v>
       </c>
       <c r="F2">
         <v>64.35097845672114</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.047791684151316</v>
+        <v>6.04779168415126</v>
       </c>
       <c r="J2">
-        <v>45.92725301817907</v>
+        <v>45.92725301817904</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.05579399691343</v>
+        <v>30.05579399691345</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.904354115726531</v>
+        <v>6.90435411572661</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,10 +459,10 @@
         <v>7.634654501112537</v>
       </c>
       <c r="E3">
-        <v>6.131849677990772</v>
+        <v>6.131849677990838</v>
       </c>
       <c r="F3">
-        <v>59.3936040366431</v>
+        <v>59.39360403664317</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.084265503143638</v>
+        <v>6.084265503143695</v>
       </c>
       <c r="J3">
-        <v>42.33076504959072</v>
+        <v>42.33076504959074</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.71980375433195</v>
+        <v>27.71980375433194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.673561233321531</v>
+        <v>6.67356123332149</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.27095286652782</v>
+        <v>7.27095286652783</v>
       </c>
       <c r="E4">
-        <v>6.069164873179254</v>
+        <v>6.069164873179322</v>
       </c>
       <c r="F4">
-        <v>56.44198858737757</v>
+        <v>56.44198858737771</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.112823362681759</v>
+        <v>6.112823362681792</v>
       </c>
       <c r="J4">
-        <v>40.06115919360366</v>
+        <v>40.06115919360379</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.24549469519401</v>
+        <v>26.24549469519406</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578445715534202</v>
+        <v>6.578445715534127</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.124144015251778</v>
+        <v>7.124144015251789</v>
       </c>
       <c r="E5">
-        <v>6.044418211852363</v>
+        <v>6.044418211852431</v>
       </c>
       <c r="F5">
-        <v>55.23837400686256</v>
+        <v>55.23837400686261</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.125813852466274</v>
+        <v>6.125813852466305</v>
       </c>
       <c r="J5">
-        <v>39.11852057075135</v>
+        <v>39.11852057075139</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562590235380922</v>
+        <v>6.562590235380927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.099840996007529</v>
+        <v>7.099840996007484</v>
       </c>
       <c r="E6">
-        <v>6.040351398635617</v>
+        <v>6.04035139863562</v>
       </c>
       <c r="F6">
-        <v>55.0384001689665</v>
+        <v>55.03840016896636</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.128047641636648</v>
+        <v>6.128047641636699</v>
       </c>
       <c r="J6">
-        <v>38.9608642782903</v>
+        <v>38.96086427829036</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.53074773724154</v>
+        <v>25.53074773724158</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.672282667117504</v>
+        <v>6.672282667117502</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.26896775363192</v>
+        <v>7.268967753631996</v>
       </c>
       <c r="E7">
-        <v>6.068828171037723</v>
+        <v>6.068828171037788</v>
       </c>
       <c r="F7">
-        <v>56.42576259455285</v>
+        <v>56.42576259455308</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.112993309186162</v>
+        <v>6.112993309186126</v>
       </c>
       <c r="J7">
-        <v>40.04852107503815</v>
+        <v>40.04852107503825</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.23728501816898</v>
+        <v>26.23728501816904</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.146772311785067</v>
+        <v>7.146772311785038</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.069310606128459</v>
+        <v>8.069310606128379</v>
       </c>
       <c r="E8">
-        <v>6.202113241015344</v>
+        <v>6.202113241015343</v>
       </c>
       <c r="F8">
-        <v>62.60367372024636</v>
+        <v>62.60367372024645</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.058956024188477</v>
+        <v>6.05895602418842</v>
       </c>
       <c r="J8">
-        <v>44.6983515737904</v>
+        <v>44.69835157379032</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.25765144755114</v>
+        <v>29.25765144755107</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.039891709505008</v>
+        <v>8.039891709504976</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.905708492980354</v>
+        <v>9.905708492980224</v>
       </c>
       <c r="E9">
-        <v>6.511375994063398</v>
+        <v>6.51137599406333</v>
       </c>
       <c r="F9">
-        <v>75.40667283200611</v>
+        <v>75.40667283200581</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.013867293008228</v>
+        <v>6.013867293008205</v>
       </c>
       <c r="J9">
-        <v>53.47079403858969</v>
+        <v>53.47079403858952</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.95265951414307</v>
+        <v>34.95265951414298</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.763152380031091</v>
+        <v>8.763152380031084</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.34155659104161</v>
+        <v>11.3415565910416</v>
       </c>
       <c r="E10">
-        <v>6.802085820762787</v>
+        <v>6.80208582076272</v>
       </c>
       <c r="F10">
-        <v>85.39363582775339</v>
+        <v>85.3936358277536</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.042819385860897</v>
+        <v>6.042819385860946</v>
       </c>
       <c r="J10">
-        <v>59.99939185299413</v>
+        <v>59.99939185299426</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.18403802469896</v>
+        <v>39.18403802469908</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.107158035500072</v>
+        <v>9.107158035500065</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.04788877554977</v>
+        <v>12.0478887755496</v>
       </c>
       <c r="E11">
-        <v>6.963313130617667</v>
+        <v>6.963313130617532</v>
       </c>
       <c r="F11">
-        <v>90.27536161417137</v>
+        <v>90.27536161417038</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.0795534334534</v>
+        <v>6.079553433453288</v>
       </c>
       <c r="J11">
-        <v>63.10775639238578</v>
+        <v>63.1077563923854</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.19492449597708</v>
+        <v>41.19492449597685</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.236419968517351</v>
+        <v>9.236419968517437</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.32837012087026</v>
+        <v>12.32837012087021</v>
       </c>
       <c r="E12">
-        <v>7.03103173281492</v>
+        <v>7.031031732814783</v>
       </c>
       <c r="F12">
-        <v>92.20604302099055</v>
+        <v>92.20604302099039</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.098397514266413</v>
+        <v>6.098397514266317</v>
       </c>
       <c r="J12">
-        <v>64.32339644379073</v>
+        <v>64.32339644379064</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.98046430085451</v>
+        <v>41.9804643008545</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.208615066744359</v>
+        <v>9.208615066744381</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.26725795730853</v>
+        <v>12.26725795730864</v>
       </c>
       <c r="E13">
-        <v>7.01609024597637</v>
+        <v>7.016090245976506</v>
       </c>
       <c r="F13">
-        <v>91.78579623942719</v>
+        <v>91.78579623942716</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.094083521750278</v>
+        <v>6.094083521750285</v>
       </c>
       <c r="J13">
-        <v>64.0594309853187</v>
+        <v>64.05943098531881</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.8099389259966</v>
+        <v>41.80993892599663</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.117808899381775</v>
+        <v>9.117808899381792</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.07065938644832</v>
+        <v>12.07065938644842</v>
       </c>
       <c r="E14">
-        <v>6.968729807054697</v>
+        <v>6.968729807054662</v>
       </c>
       <c r="F14">
-        <v>90.43228093869679</v>
+        <v>90.43228093869675</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.080992309691485</v>
+        <v>6.080992309691423</v>
       </c>
       <c r="J14">
-        <v>63.20684203414578</v>
+        <v>63.20684203414575</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.25897356657961</v>
+        <v>41.2589735665796</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.062075374081607</v>
+        <v>9.062075374081644</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.95215175964108</v>
+        <v>11.95215175964107</v>
       </c>
       <c r="E15">
-        <v>6.940693065624752</v>
+        <v>6.940693065624681</v>
       </c>
       <c r="F15">
-        <v>89.61527513866898</v>
+        <v>89.61527513866902</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.073679028394121</v>
+        <v>6.073679028394187</v>
       </c>
       <c r="J15">
-        <v>62.69039495037462</v>
+        <v>62.6903949503745</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.9251034782471</v>
+        <v>40.92510347824705</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.740498551667903</v>
+        <v>8.740498551667914</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.29685097344031</v>
+        <v>11.29685097344034</v>
       </c>
       <c r="E16">
-        <v>6.792309296234335</v>
+        <v>6.792309296234267</v>
       </c>
       <c r="F16">
-        <v>85.08381409815203</v>
+        <v>85.08381409815244</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.041004505709256</v>
+        <v>6.04100450570928</v>
       </c>
       <c r="J16">
-        <v>59.80038101872383</v>
+        <v>59.80038101872399</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>39.05519448912703</v>
+        <v>39.05519448912715</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.540850315445448</v>
+        <v>8.540850315445393</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.91134400425508</v>
+        <v>10.91134400425506</v>
       </c>
       <c r="E17">
-        <v>6.710016376326826</v>
+        <v>6.710016376326891</v>
       </c>
       <c r="F17">
-        <v>82.40857393893769</v>
+        <v>82.40857393893759</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.027833789533172</v>
+        <v>6.027833789533206</v>
       </c>
       <c r="J17">
         <v>58.07297275096496</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.9364097809349</v>
+        <v>37.93640978093489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.425011253524001</v>
+        <v>8.425011253523918</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.69417382927988</v>
+        <v>10.69417382927987</v>
       </c>
       <c r="E18">
-        <v>6.665203891094496</v>
+        <v>6.665203891094462</v>
       </c>
       <c r="F18">
         <v>80.89897288694388</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.022350251230122</v>
+        <v>6.022350251230093</v>
       </c>
       <c r="J18">
-        <v>57.09091890363158</v>
+        <v>57.09091890363172</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.30005373898818</v>
+        <v>37.30005373898826</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.385606564244325</v>
+        <v>8.385606564244352</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>10.62131257281998</v>
       </c>
       <c r="E19">
-        <v>6.65041205745403</v>
+        <v>6.650412057454</v>
       </c>
       <c r="F19">
-        <v>80.39213570329413</v>
+        <v>80.3921357032938</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.020819384383101</v>
+        <v>6.020819384383079</v>
       </c>
       <c r="J19">
         <v>56.7599874945865</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.08556876591911</v>
+        <v>37.08556876591913</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.56220474680555</v>
+        <v>8.562204746805584</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.95188085334168</v>
+        <v>10.95188085334176</v>
       </c>
       <c r="E20">
-        <v>6.718502713785432</v>
+        <v>6.718502713785464</v>
       </c>
       <c r="F20">
-        <v>82.69016449298505</v>
+        <v>82.69016449298569</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.029010958536579</v>
+        <v>6.029010958536574</v>
       </c>
       <c r="J20">
-        <v>58.25556725078494</v>
+        <v>58.2555672507852</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.05470445371986</v>
+        <v>38.05470445372003</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.144502948148524</v>
+        <v>9.144502948148574</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.12799079009855</v>
+        <v>12.12799079009859</v>
       </c>
       <c r="E21">
-        <v>6.982430601715489</v>
+        <v>6.982430601715425</v>
       </c>
       <c r="F21">
-        <v>90.82723216624434</v>
+        <v>90.82723216624454</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.084686134914497</v>
+        <v>6.084686134914482</v>
       </c>
       <c r="J21">
-        <v>63.45600860495573</v>
+        <v>63.45600860495583</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.42001944310964</v>
+        <v>41.42001944310971</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.519695690196128</v>
+        <v>9.519695690196126</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.978471993199</v>
+        <v>12.97847199319893</v>
       </c>
       <c r="E22">
-        <v>7.196711691558658</v>
+        <v>7.196711691558624</v>
       </c>
       <c r="F22">
-        <v>96.66096073743005</v>
+        <v>96.66096073743007</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.151522067170356</v>
+        <v>6.151522067170355</v>
       </c>
       <c r="J22">
-        <v>67.10037568642984</v>
+        <v>67.10037568642979</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.77264107293794</v>
+        <v>43.77264107293792</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.319692148539978</v>
+        <v>9.319692148540026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.51410607123825</v>
+        <v>12.51410607123823</v>
       </c>
       <c r="E23">
-        <v>7.077095732694884</v>
+        <v>7.077095732694814</v>
       </c>
       <c r="F23">
         <v>93.48179785552506</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.112223711141734</v>
+        <v>6.112223711141768</v>
       </c>
       <c r="J23">
-        <v>65.12257557596121</v>
+        <v>65.12257557596118</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.49657482755721</v>
+        <v>42.49657482755724</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.552553737008605</v>
+        <v>8.552553737008507</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.93354058768893</v>
+        <v>10.93354058768896</v>
       </c>
       <c r="E24">
-        <v>6.714658415548942</v>
+        <v>6.714658415548873</v>
       </c>
       <c r="F24">
-        <v>82.56277099678337</v>
+        <v>82.56277099678343</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.028472355225643</v>
+        <v>6.028472355225549</v>
       </c>
       <c r="J24">
-        <v>58.17298304088483</v>
+        <v>58.17298304088485</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>38.00120285523428</v>
+        <v>38.0012028552343</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.802313910943191</v>
+        <v>7.802313910943187</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.401610353355954</v>
+        <v>9.401610353355984</v>
       </c>
       <c r="E25">
-        <v>6.419928360906815</v>
+        <v>6.419928360906814</v>
       </c>
       <c r="F25">
-        <v>71.88962014416599</v>
+        <v>71.8896201441661</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.017525199349248</v>
+        <v>6.017525199349236</v>
       </c>
       <c r="J25">
-        <v>51.11086394618394</v>
+        <v>51.11086394618378</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.42133167017326</v>
+        <v>33.42133167017317</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.272857802756345</v>
+        <v>7.272857802756351</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.320504917308561</v>
+        <v>8.320504917308549</v>
       </c>
       <c r="E2">
-        <v>6.24064098712161</v>
+        <v>6.240640987121644</v>
       </c>
       <c r="F2">
         <v>64.35097845672114</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.04779168415126</v>
+        <v>6.047791684151316</v>
       </c>
       <c r="J2">
-        <v>45.92725301817904</v>
+        <v>45.92725301817907</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.05579399691345</v>
+        <v>30.05579399691343</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.90435411572661</v>
+        <v>6.904354115726531</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,10 +459,10 @@
         <v>7.634654501112537</v>
       </c>
       <c r="E3">
-        <v>6.131849677990838</v>
+        <v>6.131849677990772</v>
       </c>
       <c r="F3">
-        <v>59.39360403664317</v>
+        <v>59.3936040366431</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.084265503143695</v>
+        <v>6.084265503143638</v>
       </c>
       <c r="J3">
-        <v>42.33076504959074</v>
+        <v>42.33076504959072</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.71980375433194</v>
+        <v>27.71980375433195</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67356123332149</v>
+        <v>6.673561233321531</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.27095286652783</v>
+        <v>7.27095286652782</v>
       </c>
       <c r="E4">
-        <v>6.069164873179322</v>
+        <v>6.069164873179254</v>
       </c>
       <c r="F4">
-        <v>56.44198858737771</v>
+        <v>56.44198858737757</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.112823362681792</v>
+        <v>6.112823362681759</v>
       </c>
       <c r="J4">
-        <v>40.06115919360379</v>
+        <v>40.06115919360366</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.24549469519406</v>
+        <v>26.24549469519401</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578445715534127</v>
+        <v>6.578445715534202</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.124144015251789</v>
+        <v>7.124144015251778</v>
       </c>
       <c r="E5">
-        <v>6.044418211852431</v>
+        <v>6.044418211852363</v>
       </c>
       <c r="F5">
-        <v>55.23837400686261</v>
+        <v>55.23837400686256</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.125813852466305</v>
+        <v>6.125813852466274</v>
       </c>
       <c r="J5">
-        <v>39.11852057075139</v>
+        <v>39.11852057075135</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562590235380927</v>
+        <v>6.562590235380922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.099840996007484</v>
+        <v>7.099840996007529</v>
       </c>
       <c r="E6">
-        <v>6.04035139863562</v>
+        <v>6.040351398635617</v>
       </c>
       <c r="F6">
-        <v>55.03840016896636</v>
+        <v>55.0384001689665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.128047641636699</v>
+        <v>6.128047641636648</v>
       </c>
       <c r="J6">
-        <v>38.96086427829036</v>
+        <v>38.9608642782903</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.53074773724158</v>
+        <v>25.53074773724154</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.672282667117502</v>
+        <v>6.672282667117504</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.268967753631996</v>
+        <v>7.26896775363192</v>
       </c>
       <c r="E7">
-        <v>6.068828171037788</v>
+        <v>6.068828171037723</v>
       </c>
       <c r="F7">
-        <v>56.42576259455308</v>
+        <v>56.42576259455285</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.112993309186126</v>
+        <v>6.112993309186162</v>
       </c>
       <c r="J7">
-        <v>40.04852107503825</v>
+        <v>40.04852107503815</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.23728501816904</v>
+        <v>26.23728501816898</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.146772311785038</v>
+        <v>7.146772311785067</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.069310606128379</v>
+        <v>8.069310606128459</v>
       </c>
       <c r="E8">
-        <v>6.202113241015343</v>
+        <v>6.202113241015344</v>
       </c>
       <c r="F8">
-        <v>62.60367372024645</v>
+        <v>62.60367372024636</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.05895602418842</v>
+        <v>6.058956024188477</v>
       </c>
       <c r="J8">
-        <v>44.69835157379032</v>
+        <v>44.6983515737904</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.25765144755107</v>
+        <v>29.25765144755114</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.039891709504976</v>
+        <v>8.039891709505008</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.905708492980224</v>
+        <v>9.905708492980354</v>
       </c>
       <c r="E9">
-        <v>6.51137599406333</v>
+        <v>6.511375994063398</v>
       </c>
       <c r="F9">
-        <v>75.40667283200581</v>
+        <v>75.40667283200611</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.013867293008205</v>
+        <v>6.013867293008228</v>
       </c>
       <c r="J9">
-        <v>53.47079403858952</v>
+        <v>53.47079403858969</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.95265951414298</v>
+        <v>34.95265951414307</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.763152380031084</v>
+        <v>8.763152380031091</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.3415565910416</v>
+        <v>11.34155659104161</v>
       </c>
       <c r="E10">
-        <v>6.80208582076272</v>
+        <v>6.802085820762787</v>
       </c>
       <c r="F10">
-        <v>85.3936358277536</v>
+        <v>85.39363582775339</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.042819385860946</v>
+        <v>6.042819385860897</v>
       </c>
       <c r="J10">
-        <v>59.99939185299426</v>
+        <v>59.99939185299413</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.18403802469908</v>
+        <v>39.18403802469896</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.107158035500065</v>
+        <v>9.107158035500072</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.0478887755496</v>
+        <v>12.04788877554977</v>
       </c>
       <c r="E11">
-        <v>6.963313130617532</v>
+        <v>6.963313130617667</v>
       </c>
       <c r="F11">
-        <v>90.27536161417038</v>
+        <v>90.27536161417137</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.079553433453288</v>
+        <v>6.0795534334534</v>
       </c>
       <c r="J11">
-        <v>63.1077563923854</v>
+        <v>63.10775639238578</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.19492449597685</v>
+        <v>41.19492449597708</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.236419968517437</v>
+        <v>9.236419968517351</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.32837012087021</v>
+        <v>12.32837012087026</v>
       </c>
       <c r="E12">
-        <v>7.031031732814783</v>
+        <v>7.03103173281492</v>
       </c>
       <c r="F12">
-        <v>92.20604302099039</v>
+        <v>92.20604302099055</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.098397514266317</v>
+        <v>6.098397514266413</v>
       </c>
       <c r="J12">
-        <v>64.32339644379064</v>
+        <v>64.32339644379073</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.9804643008545</v>
+        <v>41.98046430085451</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.208615066744381</v>
+        <v>9.208615066744359</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.26725795730864</v>
+        <v>12.26725795730853</v>
       </c>
       <c r="E13">
-        <v>7.016090245976506</v>
+        <v>7.01609024597637</v>
       </c>
       <c r="F13">
-        <v>91.78579623942716</v>
+        <v>91.78579623942719</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.094083521750285</v>
+        <v>6.094083521750278</v>
       </c>
       <c r="J13">
-        <v>64.05943098531881</v>
+        <v>64.0594309853187</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.80993892599663</v>
+        <v>41.8099389259966</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.117808899381792</v>
+        <v>9.117808899381775</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.07065938644842</v>
+        <v>12.07065938644832</v>
       </c>
       <c r="E14">
-        <v>6.968729807054662</v>
+        <v>6.968729807054697</v>
       </c>
       <c r="F14">
-        <v>90.43228093869675</v>
+        <v>90.43228093869679</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.080992309691423</v>
+        <v>6.080992309691485</v>
       </c>
       <c r="J14">
-        <v>63.20684203414575</v>
+        <v>63.20684203414578</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.2589735665796</v>
+        <v>41.25897356657961</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.062075374081644</v>
+        <v>9.062075374081607</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.95215175964107</v>
+        <v>11.95215175964108</v>
       </c>
       <c r="E15">
-        <v>6.940693065624681</v>
+        <v>6.940693065624752</v>
       </c>
       <c r="F15">
-        <v>89.61527513866902</v>
+        <v>89.61527513866898</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.073679028394187</v>
+        <v>6.073679028394121</v>
       </c>
       <c r="J15">
-        <v>62.6903949503745</v>
+        <v>62.69039495037462</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.92510347824705</v>
+        <v>40.9251034782471</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.740498551667914</v>
+        <v>8.740498551667903</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.29685097344034</v>
+        <v>11.29685097344031</v>
       </c>
       <c r="E16">
-        <v>6.792309296234267</v>
+        <v>6.792309296234335</v>
       </c>
       <c r="F16">
-        <v>85.08381409815244</v>
+        <v>85.08381409815203</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.04100450570928</v>
+        <v>6.041004505709256</v>
       </c>
       <c r="J16">
-        <v>59.80038101872399</v>
+        <v>59.80038101872383</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>39.05519448912715</v>
+        <v>39.05519448912703</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.540850315445393</v>
+        <v>8.540850315445448</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.91134400425506</v>
+        <v>10.91134400425508</v>
       </c>
       <c r="E17">
-        <v>6.710016376326891</v>
+        <v>6.710016376326826</v>
       </c>
       <c r="F17">
-        <v>82.40857393893759</v>
+        <v>82.40857393893769</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.027833789533206</v>
+        <v>6.027833789533172</v>
       </c>
       <c r="J17">
         <v>58.07297275096496</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.93640978093489</v>
+        <v>37.9364097809349</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.425011253523918</v>
+        <v>8.425011253524001</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.69417382927987</v>
+        <v>10.69417382927988</v>
       </c>
       <c r="E18">
-        <v>6.665203891094462</v>
+        <v>6.665203891094496</v>
       </c>
       <c r="F18">
         <v>80.89897288694388</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.022350251230093</v>
+        <v>6.022350251230122</v>
       </c>
       <c r="J18">
-        <v>57.09091890363172</v>
+        <v>57.09091890363158</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.30005373898826</v>
+        <v>37.30005373898818</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.385606564244352</v>
+        <v>8.385606564244325</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>10.62131257281998</v>
       </c>
       <c r="E19">
-        <v>6.650412057454</v>
+        <v>6.65041205745403</v>
       </c>
       <c r="F19">
-        <v>80.3921357032938</v>
+        <v>80.39213570329413</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.020819384383079</v>
+        <v>6.020819384383101</v>
       </c>
       <c r="J19">
         <v>56.7599874945865</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.08556876591913</v>
+        <v>37.08556876591911</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.562204746805584</v>
+        <v>8.56220474680555</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.95188085334176</v>
+        <v>10.95188085334168</v>
       </c>
       <c r="E20">
-        <v>6.718502713785464</v>
+        <v>6.718502713785432</v>
       </c>
       <c r="F20">
-        <v>82.69016449298569</v>
+        <v>82.69016449298505</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.029010958536574</v>
+        <v>6.029010958536579</v>
       </c>
       <c r="J20">
-        <v>58.2555672507852</v>
+        <v>58.25556725078494</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.05470445372003</v>
+        <v>38.05470445371986</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.144502948148574</v>
+        <v>9.144502948148524</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.12799079009859</v>
+        <v>12.12799079009855</v>
       </c>
       <c r="E21">
-        <v>6.982430601715425</v>
+        <v>6.982430601715489</v>
       </c>
       <c r="F21">
-        <v>90.82723216624454</v>
+        <v>90.82723216624434</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.084686134914482</v>
+        <v>6.084686134914497</v>
       </c>
       <c r="J21">
-        <v>63.45600860495583</v>
+        <v>63.45600860495573</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.42001944310971</v>
+        <v>41.42001944310964</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.519695690196126</v>
+        <v>9.519695690196128</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.97847199319893</v>
+        <v>12.978471993199</v>
       </c>
       <c r="E22">
-        <v>7.196711691558624</v>
+        <v>7.196711691558658</v>
       </c>
       <c r="F22">
-        <v>96.66096073743007</v>
+        <v>96.66096073743005</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.151522067170355</v>
+        <v>6.151522067170356</v>
       </c>
       <c r="J22">
-        <v>67.10037568642979</v>
+        <v>67.10037568642984</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.77264107293792</v>
+        <v>43.77264107293794</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.319692148540026</v>
+        <v>9.319692148539978</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.51410607123823</v>
+        <v>12.51410607123825</v>
       </c>
       <c r="E23">
-        <v>7.077095732694814</v>
+        <v>7.077095732694884</v>
       </c>
       <c r="F23">
         <v>93.48179785552506</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.112223711141768</v>
+        <v>6.112223711141734</v>
       </c>
       <c r="J23">
-        <v>65.12257557596118</v>
+        <v>65.12257557596121</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.49657482755724</v>
+        <v>42.49657482755721</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.552553737008507</v>
+        <v>8.552553737008605</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.93354058768896</v>
+        <v>10.93354058768893</v>
       </c>
       <c r="E24">
-        <v>6.714658415548873</v>
+        <v>6.714658415548942</v>
       </c>
       <c r="F24">
-        <v>82.56277099678343</v>
+        <v>82.56277099678337</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.028472355225549</v>
+        <v>6.028472355225643</v>
       </c>
       <c r="J24">
-        <v>58.17298304088485</v>
+        <v>58.17298304088483</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>38.0012028552343</v>
+        <v>38.00120285523428</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.802313910943187</v>
+        <v>7.802313910943191</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.401610353355984</v>
+        <v>9.401610353355954</v>
       </c>
       <c r="E25">
-        <v>6.419928360906814</v>
+        <v>6.419928360906815</v>
       </c>
       <c r="F25">
-        <v>71.8896201441661</v>
+        <v>71.88962014416599</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.017525199349236</v>
+        <v>6.017525199349248</v>
       </c>
       <c r="J25">
-        <v>51.11086394618378</v>
+        <v>51.11086394618394</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.42133167017317</v>
+        <v>33.42133167017326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.272857802756351</v>
+        <v>7.269488539815533</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.320504917308549</v>
+        <v>8.245436905443929</v>
       </c>
       <c r="E2">
-        <v>6.240640987121644</v>
+        <v>5.998127620345437</v>
       </c>
       <c r="F2">
-        <v>64.35097845672114</v>
+        <v>64.11867379286392</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.960323018744845</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.047791684151316</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>45.92725301817907</v>
+        <v>5.994270449199703</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>45.56066887348146</v>
       </c>
       <c r="L2">
-        <v>30.05579399691343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.84132191299185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.904354115726531</v>
+        <v>6.901725283479681</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.634654501112537</v>
+        <v>7.664364836475877</v>
       </c>
       <c r="E3">
-        <v>6.131849677990772</v>
+        <v>5.887217586515494</v>
       </c>
       <c r="F3">
-        <v>59.3936040366431</v>
+        <v>59.33766177406277</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.988520101432549</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.084265503143638</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>42.33076504959072</v>
+        <v>6.030023030829098</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>41.98897382004001</v>
       </c>
       <c r="L3">
-        <v>27.71980375433195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.51872326180112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.673561233321531</v>
+        <v>6.671392985897766</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.27095286652782</v>
+        <v>7.316035219390717</v>
       </c>
       <c r="E4">
-        <v>6.069164873179254</v>
+        <v>5.823044694543309</v>
       </c>
       <c r="F4">
-        <v>56.44198858737757</v>
+        <v>56.44627083600228</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.005608196500969</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.112823362681759</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>40.06115919360366</v>
+        <v>6.058063945598237</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>39.73410293675983</v>
       </c>
       <c r="L4">
-        <v>26.24549469519401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.05216176239561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578445715534202</v>
+        <v>6.576467775916578</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.124144015251778</v>
+        <v>7.175787268175378</v>
       </c>
       <c r="E5">
-        <v>6.044418211852363</v>
+        <v>5.797652459403664</v>
       </c>
       <c r="F5">
-        <v>55.23837400686256</v>
+        <v>55.26821389319385</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.012547680864898</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.125813852466274</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>39.11852057075135</v>
+        <v>6.070829297254069</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>38.7974166188982</v>
       </c>
       <c r="L5">
-        <v>25.63316034528843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.44290423192164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562590235380922</v>
+        <v>6.560644079805068</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.099840996007529</v>
+        <v>7.152592124790767</v>
       </c>
       <c r="E6">
-        <v>6.040351398635617</v>
+        <v>5.793476272267925</v>
       </c>
       <c r="F6">
-        <v>55.0384001689665</v>
+        <v>55.07254961258604</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.013699350926077</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.128047641636648</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>38.9608642782903</v>
+        <v>6.073024923092449</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>38.64074726404799</v>
       </c>
       <c r="L6">
-        <v>25.53074773724154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.34099859027592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.672282667117504</v>
+        <v>6.670116974458154</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.26896775363192</v>
+        <v>7.314137362932572</v>
       </c>
       <c r="E7">
-        <v>6.068828171037723</v>
+        <v>5.822699435770795</v>
       </c>
       <c r="F7">
-        <v>56.42576259455285</v>
+        <v>56.4303852074525</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.005701844047286</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.112993309186162</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>40.04852107503815</v>
+        <v>6.05823090997633</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>39.72154522506546</v>
       </c>
       <c r="L7">
-        <v>26.23728501816898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.04399386302882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.146772311785067</v>
+        <v>7.143657918798723</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.069310606128459</v>
+        <v>8.043022174435773</v>
       </c>
       <c r="E8">
-        <v>6.202113241015344</v>
+        <v>5.958913782157168</v>
       </c>
       <c r="F8">
-        <v>62.60367372024636</v>
+        <v>62.43117230483644</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.970113996281014</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.058956024188477</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>44.6983515737904</v>
+        <v>6.005204504540925</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>44.34046633397715</v>
       </c>
       <c r="L8">
-        <v>29.25765144755114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.0479232139333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.039891709505008</v>
+        <v>8.034883425138618</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.905708492980354</v>
+        <v>9.786687519286547</v>
       </c>
       <c r="E9">
-        <v>6.511375994063398</v>
+        <v>6.271874011297807</v>
       </c>
       <c r="F9">
-        <v>75.40667283200611</v>
+        <v>74.99582930657441</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.89656215685381</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.013867293008228</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>53.47079403858969</v>
+        <v>5.961197857101476</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>53.04363848368955</v>
       </c>
       <c r="L9">
-        <v>34.95265951414307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.70413823558273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.763152380031091</v>
+        <v>8.753684616392276</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.34155659104161</v>
+        <v>11.19733019387697</v>
       </c>
       <c r="E10">
-        <v>6.802085820762787</v>
+        <v>6.562558359751927</v>
       </c>
       <c r="F10">
-        <v>85.39363582775339</v>
+        <v>84.81311533586519</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.836093941621526</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.042819385860897</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>59.99939185299413</v>
+        <v>5.989544849157232</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>59.50401551295468</v>
       </c>
       <c r="L10">
-        <v>39.18403802469896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.89578058003915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.107158035500072</v>
+        <v>9.096774778651882</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.04788877554977</v>
+        <v>11.88952663540353</v>
       </c>
       <c r="E11">
-        <v>6.963313130617667</v>
+        <v>6.722340640854417</v>
       </c>
       <c r="F11">
-        <v>90.27536161417137</v>
+        <v>89.60183091182452</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.805512480773785</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.0795534334534</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>63.10775639238578</v>
+        <v>6.025225702075065</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>62.57122900008988</v>
       </c>
       <c r="L11">
-        <v>41.19492449597708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.88228015190179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.236419968517351</v>
+        <v>9.225636385621844</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.32837012087026</v>
+        <v>12.16390242462619</v>
       </c>
       <c r="E12">
-        <v>7.03103173281492</v>
+        <v>6.789135198196162</v>
       </c>
       <c r="F12">
-        <v>92.20604302099055</v>
+        <v>91.49273770139754</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.793232882055543</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.098397514266413</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>64.32339644379073</v>
+        <v>6.043464701529714</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>63.76859498511749</v>
       </c>
       <c r="L12">
-        <v>41.98046430085451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.65692163130225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.208615066744359</v>
+        <v>9.197920751391116</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.26725795730853</v>
+        <v>12.10414856976628</v>
       </c>
       <c r="E13">
-        <v>7.01609024597637</v>
+        <v>6.774414200697468</v>
       </c>
       <c r="F13">
-        <v>91.78579623942719</v>
+        <v>91.0813205272227</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.795914604565948</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.094083521750278</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>64.0594309853187</v>
+        <v>6.039292766508256</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>63.50871822920373</v>
       </c>
       <c r="L13">
-        <v>41.8099389259966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.48883781893862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.117808899381775</v>
+        <v>9.107394010031669</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.07065938644832</v>
+        <v>11.91181341070163</v>
       </c>
       <c r="E14">
-        <v>6.968729807054697</v>
+        <v>6.727690459633974</v>
       </c>
       <c r="F14">
-        <v>90.43228093869679</v>
+        <v>89.7555900801806</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.804518326216682</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.080992309691485</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>63.20684203414578</v>
+        <v>6.026619810357982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>62.66887657822991</v>
       </c>
       <c r="L14">
-        <v>41.25897356657961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.94547294187085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.062075374081607</v>
+        <v>9.051823530713026</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.95215175964108</v>
+        <v>11.79580247823843</v>
       </c>
       <c r="E15">
-        <v>6.940693065624752</v>
+        <v>6.699986691739716</v>
       </c>
       <c r="F15">
-        <v>89.61527513866898</v>
+        <v>88.95490709598852</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.809686859757704</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.073679028394121</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>62.69039495037462</v>
+        <v>6.019531522067148</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>62.15983067936459</v>
       </c>
       <c r="L15">
-        <v>40.9251034782471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.61600717621807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.740498551667903</v>
+        <v>8.731084909037179</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.29685097344031</v>
+        <v>11.1534698887691</v>
       </c>
       <c r="E16">
-        <v>6.792309296234335</v>
+        <v>6.552836168364047</v>
       </c>
       <c r="F16">
-        <v>85.08381409815203</v>
+        <v>84.50890026612635</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.838012078354107</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.041004505709256</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>59.80038101872383</v>
+        <v>5.987776862904473</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>59.30740772233716</v>
       </c>
       <c r="L16">
-        <v>39.05519448912703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.76835325635153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.540850315445448</v>
+        <v>8.531887371217497</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.91134400425508</v>
+        <v>10.77505629301983</v>
       </c>
       <c r="E17">
-        <v>6.710016376326826</v>
+        <v>6.470852533945856</v>
       </c>
       <c r="F17">
-        <v>82.40857393893769</v>
+        <v>81.88092448833748</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.854461733059519</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.027833789533172</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>58.07297275096496</v>
+        <v>5.97492627196451</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>57.59987531344711</v>
       </c>
       <c r="L17">
-        <v>37.9364097809349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.66124226227857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.425011253524001</v>
+        <v>8.416290667358991</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.69417382927988</v>
+        <v>10.5617461664608</v>
       </c>
       <c r="E18">
-        <v>6.665203891094496</v>
+        <v>6.426097739931379</v>
       </c>
       <c r="F18">
-        <v>80.89897288694388</v>
+        <v>80.39721306472684</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.863654772431824</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.022350251230122</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>57.09091890363158</v>
+        <v>5.969561758193553</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>56.62840711496452</v>
       </c>
       <c r="L18">
-        <v>37.30005373898818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.03107142713164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.385606564244325</v>
+        <v>8.376965595389517</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.62131257281998</v>
+        <v>10.4901609774168</v>
       </c>
       <c r="E19">
-        <v>6.65041205745403</v>
+        <v>6.411307855537437</v>
       </c>
       <c r="F19">
-        <v>80.39213570329413</v>
+        <v>79.89896188107177</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.866726863306555</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.020819384383101</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>56.7599874945865</v>
+        <v>5.968061733696497</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>56.30093730431929</v>
       </c>
       <c r="L19">
-        <v>37.08556876591911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.8186037226177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.56220474680555</v>
+        <v>8.553195687495668</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.95188085334168</v>
+        <v>10.81486254775218</v>
       </c>
       <c r="E20">
-        <v>6.718502713785432</v>
+        <v>6.47931917098026</v>
       </c>
       <c r="F20">
-        <v>82.69016449298505</v>
+        <v>82.15762862191718</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.852739807453494</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.029010958536579</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>58.25556725078494</v>
+        <v>5.976076541243149</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>57.7804474193599</v>
       </c>
       <c r="L20">
-        <v>38.05470445371986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.77835257641979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.144502948148524</v>
+        <v>9.134007757089849</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.12799079009855</v>
+        <v>11.96791768939952</v>
       </c>
       <c r="E21">
-        <v>6.982430601715489</v>
+        <v>6.741216711264969</v>
       </c>
       <c r="F21">
-        <v>90.82723216624434</v>
+        <v>90.14253284782582</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.802013079522906</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.084686134914497</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>63.45600860495573</v>
+        <v>6.030197604594542</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>62.91438789105187</v>
       </c>
       <c r="L21">
-        <v>41.42001944310964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.10434125190417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.519695690196128</v>
+        <v>9.507880570246593</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.978471993199</v>
+        <v>12.79840983060095</v>
       </c>
       <c r="E22">
-        <v>7.196711691558658</v>
+        <v>6.951712706375138</v>
       </c>
       <c r="F22">
-        <v>96.66096073743005</v>
+        <v>95.84699192835633</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.764506193149944</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.151522067170356</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>67.10037568642984</v>
+        <v>6.094675401409557</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>66.49779771950234</v>
       </c>
       <c r="L22">
-        <v>43.77264107293794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.42045623367351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.319692148539978</v>
+        <v>9.308629740841148</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.51410607123825</v>
+        <v>12.34540600761967</v>
       </c>
       <c r="E23">
-        <v>7.077095732694884</v>
+        <v>6.834459115512935</v>
       </c>
       <c r="F23">
-        <v>93.48179785552506</v>
+        <v>92.74104702549329</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.785061916054411</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.112223711141734</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>65.12257557596121</v>
+        <v>6.05682186116971</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>64.55495402240638</v>
       </c>
       <c r="L23">
-        <v>42.49657482755721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.1653658967555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.552553737008605</v>
+        <v>8.543565577053061</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.93354058768893</v>
+        <v>10.79685324100224</v>
       </c>
       <c r="E24">
-        <v>6.714658415548942</v>
+        <v>6.475484143524028</v>
       </c>
       <c r="F24">
-        <v>82.56277099678337</v>
+        <v>82.03244813789625</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.853519095948298</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.028472355225643</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>58.17298304088483</v>
+        <v>5.975550296265506</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>57.69878008089019</v>
       </c>
       <c r="L24">
-        <v>38.00120285523428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.72538802065698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.802313910943191</v>
+        <v>7.797836347105627</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.401610353355954</v>
+        <v>9.290829284884216</v>
       </c>
       <c r="E25">
-        <v>6.419928360906815</v>
+        <v>6.179748925805399</v>
       </c>
       <c r="F25">
-        <v>71.88962014416599</v>
+        <v>71.53546239826476</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.917197259879698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.017525199349248</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>51.11086394618394</v>
+        <v>5.964718070035092</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>50.70423955896681</v>
       </c>
       <c r="L25">
-        <v>33.42133167017326</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.18452001898827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.269488539815533</v>
+        <v>20.01079632275771</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.245436905443929</v>
+        <v>2.280422320879842</v>
       </c>
       <c r="E2">
-        <v>5.998127620345437</v>
+        <v>45.13634161875369</v>
       </c>
       <c r="F2">
-        <v>64.11867379286392</v>
+        <v>35.83162511488416</v>
       </c>
       <c r="G2">
-        <v>1.960323018744845</v>
+        <v>1.988647352139679</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.994270449199703</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>45.56066887348146</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.6881004139754</v>
       </c>
       <c r="M2">
-        <v>29.84132191299185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.876323613283</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.56622852970422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.901725283479681</v>
+        <v>18.81487896898782</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.664364836475877</v>
+        <v>2.380090613098597</v>
       </c>
       <c r="E3">
-        <v>5.887217586515494</v>
+        <v>42.31300828566069</v>
       </c>
       <c r="F3">
-        <v>59.33766177406277</v>
+        <v>33.21305901702879</v>
       </c>
       <c r="G3">
-        <v>1.988520101432549</v>
+        <v>2.005885465704611</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.030023030829098</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>41.98897382004001</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.75080874253129</v>
       </c>
       <c r="M3">
-        <v>27.51872326180112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.80561490271001</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>25.5770159341975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.671392985897766</v>
+        <v>18.05490048533387</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.316035219390717</v>
+        <v>2.459690328692724</v>
       </c>
       <c r="E4">
-        <v>5.823044694543309</v>
+        <v>40.50591474310284</v>
       </c>
       <c r="F4">
-        <v>56.44627083600228</v>
+        <v>31.71470235022666</v>
       </c>
       <c r="G4">
-        <v>2.005608196500969</v>
+        <v>2.016567030134488</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.058063945598237</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>39.73410293675983</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.14796774389227</v>
       </c>
       <c r="M4">
-        <v>26.05216176239561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.21609090431426</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.50458483471498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576467775916578</v>
+        <v>17.73883887283305</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.175787268175378</v>
+        <v>2.495899902086428</v>
       </c>
       <c r="E5">
-        <v>5.797652459403664</v>
+        <v>39.7508053743565</v>
       </c>
       <c r="F5">
-        <v>55.26821389319385</v>
+        <v>31.10622728349172</v>
       </c>
       <c r="G5">
-        <v>2.012547680864898</v>
+        <v>2.020952994643971</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.070829297254069</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>38.7974166188982</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.8952800978468</v>
       </c>
       <c r="M5">
-        <v>25.44290423192164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.97154385633346</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.07269580374843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560644079805068</v>
+        <v>17.68597681424121</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.152592124790767</v>
+        <v>2.50211829305112</v>
       </c>
       <c r="E6">
-        <v>5.793476272267925</v>
+        <v>39.6242868819255</v>
       </c>
       <c r="F6">
-        <v>55.07254961258604</v>
+        <v>31.00532311346866</v>
       </c>
       <c r="G6">
-        <v>2.013699350926077</v>
+        <v>2.021683515510931</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.073024923092449</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>38.64074726404799</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.8528932785087</v>
       </c>
       <c r="M6">
-        <v>25.34099859027592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.93068053782595</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24.00129455370151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.670116974458154</v>
+        <v>18.05066356115749</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.314137362932572</v>
+        <v>2.460164407008063</v>
       </c>
       <c r="E7">
-        <v>5.822699435770795</v>
+        <v>40.49580698340718</v>
       </c>
       <c r="F7">
-        <v>56.4303852074525</v>
+        <v>31.70648749078932</v>
       </c>
       <c r="G7">
-        <v>2.005701844047286</v>
+        <v>2.016626035922211</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.05823090997633</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>39.72154522506546</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.14458853536611</v>
       </c>
       <c r="M7">
-        <v>26.04399386302882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.21281014477862</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24.49873930394948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.143657918798723</v>
+        <v>19.60380795279962</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.043022174435773</v>
+        <v>2.310404946533452</v>
       </c>
       <c r="E8">
-        <v>5.958913782157168</v>
+        <v>44.17795492921504</v>
       </c>
       <c r="F8">
-        <v>62.43117230483644</v>
+        <v>34.89331770029208</v>
       </c>
       <c r="G8">
-        <v>1.970113996281014</v>
+        <v>1.99457644699166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.005204504540925</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>44.34046633397715</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.37049852637996</v>
       </c>
       <c r="M8">
-        <v>29.0479232139333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.4776953007573</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>26.82112707254412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.034883425138618</v>
+        <v>22.44542240564123</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.786687519286547</v>
+        <v>2.868350347656605</v>
       </c>
       <c r="E9">
-        <v>6.271874011297807</v>
+        <v>50.83199333760844</v>
       </c>
       <c r="F9">
-        <v>74.99582930657441</v>
+        <v>41.64646498391239</v>
       </c>
       <c r="G9">
-        <v>1.89656215685381</v>
+        <v>1.951646985559217</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.961197857101476</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>53.04363848368955</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.56577704667441</v>
       </c>
       <c r="M9">
-        <v>34.70413823558273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.22746914056552</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.18319489691775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.753684616392276</v>
+        <v>24.54566238463172</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.19733019387697</v>
+        <v>3.421721831610808</v>
       </c>
       <c r="E10">
-        <v>6.562558359751927</v>
+        <v>55.41121637759663</v>
       </c>
       <c r="F10">
-        <v>84.81311533586519</v>
+        <v>46.61494016667911</v>
       </c>
       <c r="G10">
-        <v>1.836093941621526</v>
+        <v>1.919507212141678</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.989544849157232</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>59.50401551295468</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.06542010256406</v>
       </c>
       <c r="M10">
-        <v>38.89578058003915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.09834898534908</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36.13027763227952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.096774778651882</v>
+        <v>25.49925390985722</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.88952663540353</v>
+        <v>3.683072713632856</v>
       </c>
       <c r="E11">
-        <v>6.722340640854417</v>
+        <v>57.43932867705528</v>
       </c>
       <c r="F11">
-        <v>89.60183091182452</v>
+        <v>48.90047082713666</v>
       </c>
       <c r="G11">
-        <v>1.805512480773785</v>
+        <v>1.904523792255796</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.025225702075065</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>62.57122900008988</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.72711917134392</v>
       </c>
       <c r="M11">
-        <v>40.88228015190179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.92175962096881</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>37.94731966179642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.225636385621844</v>
+        <v>25.85623465972319</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.16390242462619</v>
+        <v>3.783896584835165</v>
       </c>
       <c r="E12">
-        <v>6.789135198196162</v>
+        <v>58.20080611361374</v>
       </c>
       <c r="F12">
-        <v>91.49273770139754</v>
+        <v>49.77240012371856</v>
       </c>
       <c r="G12">
-        <v>1.793232882055543</v>
+        <v>1.898772344407141</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.043464701529714</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>63.76859498511749</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.97517453867184</v>
       </c>
       <c r="M12">
-        <v>41.65692163130225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.23008269967236</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>38.6407983518769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.197920751391116</v>
+        <v>25.77952696951193</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.10414856976628</v>
+        <v>3.762090804962367</v>
       </c>
       <c r="E13">
-        <v>6.774414200697468</v>
+        <v>58.03707219669418</v>
       </c>
       <c r="F13">
-        <v>91.0813205272227</v>
+        <v>49.58427395368687</v>
       </c>
       <c r="G13">
-        <v>1.795914604565948</v>
+        <v>1.900014945437188</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.039292766508256</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>63.50871822920373</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>17.92185528354407</v>
       </c>
       <c r="M13">
-        <v>41.48883781893862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.16382574653602</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>38.49116069160391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.107394010031669</v>
+        <v>25.52870241150881</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.91181341070163</v>
+        <v>3.691327161819654</v>
       </c>
       <c r="E14">
-        <v>6.727690459633974</v>
+        <v>57.5020973131906</v>
       </c>
       <c r="F14">
-        <v>89.7555900801806</v>
+        <v>48.97205666377976</v>
       </c>
       <c r="G14">
-        <v>1.804518326216682</v>
+        <v>1.904052340010244</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.026619810357982</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>62.66887657822991</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.74757441750594</v>
       </c>
       <c r="M14">
-        <v>40.94547294187085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.94719216766746</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>38.00424856534807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.051823530713026</v>
+        <v>25.37454431517778</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.79580247823843</v>
+        <v>3.648240428285714</v>
       </c>
       <c r="E15">
-        <v>6.699986691739716</v>
+        <v>57.17360777982105</v>
       </c>
       <c r="F15">
-        <v>88.95490709598852</v>
+        <v>48.59799315566426</v>
       </c>
       <c r="G15">
-        <v>1.809686859757704</v>
+        <v>1.906514398371335</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.019531522067148</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>62.15983067936459</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.64050926861088</v>
       </c>
       <c r="M15">
-        <v>40.61600717621807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.81406052740221</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>37.70678485431156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.731084909037179</v>
+        <v>24.48273721190805</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.1534698887691</v>
+        <v>3.404872952717594</v>
       </c>
       <c r="E16">
-        <v>6.552836168364047</v>
+        <v>55.27767753554988</v>
       </c>
       <c r="F16">
-        <v>84.50890026612635</v>
+        <v>46.46630675325701</v>
       </c>
       <c r="G16">
-        <v>1.838012078354107</v>
+        <v>1.920477083344499</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.987776862904473</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>59.30740772233716</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>17.02179876759409</v>
       </c>
       <c r="M16">
-        <v>38.76835325635153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.04402031639523</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>36.01214511620597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.531887371217497</v>
+        <v>23.92774979756334</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.77505629301983</v>
+        <v>3.258335299666523</v>
       </c>
       <c r="E17">
-        <v>6.470852533945856</v>
+        <v>54.10136952927301</v>
       </c>
       <c r="F17">
-        <v>81.88092448833748</v>
+        <v>45.16682702122064</v>
       </c>
       <c r="G17">
-        <v>1.854461733059519</v>
+        <v>1.928933620002251</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.97492627196451</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>57.59987531344711</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.63726792446682</v>
       </c>
       <c r="M17">
-        <v>37.66124226227857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.56485981935369</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.97949078568319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.416290667358991</v>
+        <v>23.60548722826421</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.5617461664608</v>
+        <v>3.174921141596681</v>
       </c>
       <c r="E18">
-        <v>6.426097739931379</v>
+        <v>53.41950926590741</v>
       </c>
       <c r="F18">
-        <v>80.39721306472684</v>
+        <v>44.42157675665275</v>
       </c>
       <c r="G18">
-        <v>1.863654772431824</v>
+        <v>1.933765270222797</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.969561758193553</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>56.62840711496452</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.41413597968625</v>
       </c>
       <c r="M18">
-        <v>37.03107142713164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.28662088193323</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.38738623753997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.376965595389517</v>
+        <v>23.49583816489183</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.4901609774168</v>
+        <v>3.146815700355242</v>
       </c>
       <c r="E19">
-        <v>6.411307855537437</v>
+        <v>53.18770020544952</v>
       </c>
       <c r="F19">
-        <v>79.89896188107177</v>
+        <v>44.16954894127046</v>
       </c>
       <c r="G19">
-        <v>1.866726863306555</v>
+        <v>1.935396307245267</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.968061733696497</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>56.30093730431929</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.3382390985961</v>
       </c>
       <c r="M19">
-        <v>36.8186037226177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.1919474237376</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.18716757739011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.553195687495668</v>
+        <v>23.98714152592077</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.81486254775218</v>
+        <v>3.27384138696502</v>
       </c>
       <c r="E20">
-        <v>6.47931917098026</v>
+        <v>54.22712704804076</v>
       </c>
       <c r="F20">
-        <v>82.15762862191718</v>
+        <v>45.30491588867476</v>
       </c>
       <c r="G20">
-        <v>1.852739807453494</v>
+        <v>1.928036917008274</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.976076541243149</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>57.7804474193599</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.67840192119548</v>
       </c>
       <c r="M20">
-        <v>37.77835257641979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.61613710584023</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.08921235472675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.134007757089849</v>
+        <v>25.60248317595839</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.96791768939952</v>
+        <v>3.71205734036498</v>
       </c>
       <c r="E21">
-        <v>6.741216711264969</v>
+        <v>57.65939648932601</v>
       </c>
       <c r="F21">
-        <v>90.14253284782582</v>
+        <v>49.15167816379466</v>
       </c>
       <c r="G21">
-        <v>1.802013079522906</v>
+        <v>1.902868798713436</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.030197604594542</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>62.91438789105187</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.79882926000716</v>
       </c>
       <c r="M21">
-        <v>41.10434125190417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.01091279741264</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>38.14709794301626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.507880570246593</v>
+        <v>26.63447923818842</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.79840983060095</v>
+        <v>4.009601875317169</v>
       </c>
       <c r="E22">
-        <v>6.951712706375138</v>
+        <v>59.8655043897118</v>
       </c>
       <c r="F22">
-        <v>95.84699192835633</v>
+        <v>51.70531004296021</v>
       </c>
       <c r="G22">
-        <v>1.764506193149944</v>
+        <v>1.88595100976397</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.094675401409557</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>66.49779771950234</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.51671065028402</v>
       </c>
       <c r="M22">
-        <v>43.42045623367351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.90248355564474</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>40.1787146762206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.308629740841148</v>
+        <v>26.08566357792722</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.34540600761967</v>
+        <v>3.849582768862819</v>
       </c>
       <c r="E23">
-        <v>6.834459115512935</v>
+        <v>58.69088902165074</v>
       </c>
       <c r="F23">
-        <v>92.74104702549329</v>
+        <v>50.33760920324536</v>
       </c>
       <c r="G23">
-        <v>1.785061916054411</v>
+        <v>1.895033463408626</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.05682186116971</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>64.55495402240638</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.13470884303296</v>
       </c>
       <c r="M23">
-        <v>42.1653658967555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.42827160642866</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>39.09041854031243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.543565577053061</v>
+        <v>23.9603005054971</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.79685324100224</v>
+        <v>3.266828526293142</v>
       </c>
       <c r="E24">
-        <v>6.475484143524028</v>
+        <v>54.17028956927275</v>
       </c>
       <c r="F24">
-        <v>82.03244813789625</v>
+        <v>45.24248038692556</v>
       </c>
       <c r="G24">
-        <v>1.853519095948298</v>
+        <v>1.928442408440914</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.975550296265506</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>57.69878008089019</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.65981168902253</v>
       </c>
       <c r="M24">
-        <v>37.72538802065698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.59296328704549</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.03960247042249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.797836347105627</v>
+        <v>21.69829487905717</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.290829284884216</v>
+        <v>2.670597478841013</v>
       </c>
       <c r="E25">
-        <v>6.179748925805399</v>
+        <v>49.08953879912645</v>
       </c>
       <c r="F25">
-        <v>71.53546239826476</v>
+        <v>39.82461500344545</v>
       </c>
       <c r="G25">
-        <v>1.917197259879698</v>
+        <v>1.963299615952838</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.964718070035092</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>50.70423955896681</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.99295244139381</v>
       </c>
       <c r="M25">
-        <v>33.18452001898827</v>
+        <v>18.51120404171977</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.73655904930854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.01079632275771</v>
+        <v>7.247021930168415</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.280422320879842</v>
+        <v>4.917819119107413</v>
       </c>
       <c r="E2">
-        <v>45.13634161875369</v>
+        <v>8.099167900165597</v>
       </c>
       <c r="F2">
-        <v>35.83162511488416</v>
+        <v>28.83798999217765</v>
       </c>
       <c r="G2">
-        <v>1.988647352139679</v>
+        <v>36.98435255108708</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.88414490691287</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.895772257101732</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.04440103267355</v>
       </c>
       <c r="L2">
-        <v>13.6881004139754</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.876323613283</v>
+        <v>13.46994212450596</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.43484587512168</v>
       </c>
       <c r="O2">
-        <v>27.56622852970422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.81487896898782</v>
+        <v>6.890154017077188</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.380090613098597</v>
+        <v>4.782002153134915</v>
       </c>
       <c r="E3">
-        <v>42.31300828566069</v>
+        <v>7.979022559862532</v>
       </c>
       <c r="F3">
-        <v>33.21305901702879</v>
+        <v>28.14736881168015</v>
       </c>
       <c r="G3">
-        <v>2.005885465704611</v>
+        <v>35.83273965650379</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.79451031252659</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.914041331324247</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.96664013509527</v>
       </c>
       <c r="L3">
-        <v>12.75080874253129</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.80561490271001</v>
+        <v>12.83304747288683</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.67274493989295</v>
       </c>
       <c r="O3">
-        <v>25.5770159341975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05490048533387</v>
+        <v>6.664860055973546</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.459690328692724</v>
+        <v>4.698425954565939</v>
       </c>
       <c r="E4">
-        <v>40.50591474310284</v>
+        <v>7.90861105805155</v>
       </c>
       <c r="F4">
-        <v>31.71470235022666</v>
+        <v>27.74109027420328</v>
       </c>
       <c r="G4">
-        <v>2.016567030134488</v>
+        <v>35.14658100770628</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.7482827342828</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.927695802677508</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.2680840772574</v>
       </c>
       <c r="L4">
-        <v>12.14796774389227</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.21609090431426</v>
+        <v>12.43270806589216</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.8217606039037</v>
       </c>
       <c r="O4">
-        <v>24.50458483471498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.73883887283305</v>
+        <v>6.57162665916807</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.495899902086428</v>
+        <v>4.664364932966853</v>
       </c>
       <c r="E5">
-        <v>39.7508053743565</v>
+        <v>7.880771806207819</v>
       </c>
       <c r="F5">
-        <v>31.10622728349172</v>
+        <v>27.58007127976601</v>
       </c>
       <c r="G5">
-        <v>2.020952994643971</v>
+        <v>34.87246865775864</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.7315915769608</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.9338576060589</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.97409498090144</v>
       </c>
       <c r="L5">
-        <v>11.8952800978468</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.97154385633346</v>
+        <v>12.26744164930445</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.88325822459605</v>
       </c>
       <c r="O5">
-        <v>24.07269580374843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68597681424121</v>
+        <v>6.556063462339742</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.50211829305112</v>
+        <v>4.658710251877444</v>
       </c>
       <c r="E6">
-        <v>39.6242868819255</v>
+        <v>7.876200947946929</v>
       </c>
       <c r="F6">
-        <v>31.00532311346866</v>
+        <v>27.55361057468519</v>
       </c>
       <c r="G6">
-        <v>2.021683515510931</v>
+        <v>34.82729176630585</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.7289476593708</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.934916418884946</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.92471346855239</v>
       </c>
       <c r="L6">
-        <v>11.8528932785087</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.93068053782595</v>
+        <v>12.23987773555561</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.8935174235219</v>
       </c>
       <c r="O6">
-        <v>24.00129455370151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05066356115749</v>
+        <v>6.66360825965511</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.460164407008063</v>
+        <v>4.697966549158158</v>
       </c>
       <c r="E7">
-        <v>40.49580698340718</v>
+        <v>7.908232138823252</v>
       </c>
       <c r="F7">
-        <v>31.70648749078932</v>
+        <v>27.73890022968468</v>
       </c>
       <c r="G7">
-        <v>2.016626035922211</v>
+        <v>35.14286163883148</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.74804903012311</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.927776503503343</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.26415706523472</v>
       </c>
       <c r="L7">
-        <v>12.14458853536611</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.21281014477862</v>
+        <v>12.43048752700258</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.82258681313082</v>
       </c>
       <c r="O7">
-        <v>24.49873930394948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.60380795279962</v>
+        <v>7.125326591951979</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.310404946533452</v>
+        <v>4.871052778597849</v>
       </c>
       <c r="E8">
-        <v>44.17795492921504</v>
+        <v>8.057050925597597</v>
       </c>
       <c r="F8">
-        <v>34.89331770029208</v>
+        <v>28.59622433295158</v>
       </c>
       <c r="G8">
-        <v>1.99457644699166</v>
+        <v>36.58307369432654</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.85137052604818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.901556160551086</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.68038634136406</v>
       </c>
       <c r="L8">
-        <v>13.37049852637996</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.4776953007573</v>
+        <v>13.25238300174469</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.51628215235401</v>
       </c>
       <c r="O8">
-        <v>26.82112707254412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.44542240564123</v>
+        <v>7.977097815349889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.868350347656605</v>
+        <v>5.207257597707017</v>
       </c>
       <c r="E9">
-        <v>50.83199333760844</v>
+        <v>8.375065814616441</v>
       </c>
       <c r="F9">
-        <v>41.64646498391239</v>
+        <v>30.41485717493119</v>
       </c>
       <c r="G9">
-        <v>1.951646985559217</v>
+        <v>39.56337162741048</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.12680492284009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.870199697993692</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.16887421386745</v>
       </c>
       <c r="L9">
-        <v>15.56577704667441</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>19.22746914056552</v>
+        <v>14.78294740098594</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.93743875365437</v>
       </c>
       <c r="O9">
-        <v>32.18319489691775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.54566238463172</v>
+        <v>8.604114625609666</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.421721831610808</v>
+        <v>5.450190970306901</v>
       </c>
       <c r="E10">
-        <v>55.41121637759663</v>
+        <v>8.624038917450259</v>
       </c>
       <c r="F10">
-        <v>46.61494016667911</v>
+        <v>31.83025167216545</v>
       </c>
       <c r="G10">
-        <v>1.919507212141678</v>
+        <v>41.83614453336439</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.3774430435809</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.860445339418628</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.82616098594578</v>
       </c>
       <c r="L10">
-        <v>17.06542010256406</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>21.09834898534908</v>
+        <v>16.10061443279785</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.52315945200957</v>
       </c>
       <c r="O10">
-        <v>36.13027763227952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.49925390985722</v>
+        <v>8.9147976982216</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.683072713632856</v>
+        <v>5.559448801710628</v>
       </c>
       <c r="E11">
-        <v>57.43932867705528</v>
+        <v>8.7405034310065</v>
       </c>
       <c r="F11">
-        <v>48.90047082713666</v>
+        <v>32.49057024084812</v>
       </c>
       <c r="G11">
-        <v>1.904523792255796</v>
+        <v>42.88622909572852</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.50275068151017</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.859138352798728</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.54417972322171</v>
       </c>
       <c r="L11">
-        <v>17.72711917134392</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>21.92175962096881</v>
+        <v>16.68706987518658</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.33653060425647</v>
       </c>
       <c r="O11">
-        <v>37.94731966179642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.85623465972319</v>
+        <v>9.030045980934295</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.783896584835165</v>
+        <v>5.600615633960379</v>
       </c>
       <c r="E12">
-        <v>58.20080611361374</v>
+        <v>8.785056781920607</v>
       </c>
       <c r="F12">
-        <v>49.77240012371856</v>
+        <v>32.74293395100601</v>
       </c>
       <c r="G12">
-        <v>1.898772344407141</v>
+        <v>43.28608979981545</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.55188974003548</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.85911536550197</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.81102106984309</v>
       </c>
       <c r="L12">
-        <v>17.97517453867184</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.23008269967236</v>
+        <v>16.90504320187357</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.26607321245343</v>
       </c>
       <c r="O12">
-        <v>38.6407983518769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.77952696951193</v>
+        <v>9.005331468626702</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.762090804962367</v>
+        <v>5.591759192003257</v>
       </c>
       <c r="E13">
-        <v>58.03707219669418</v>
+        <v>8.775441513647872</v>
       </c>
       <c r="F13">
-        <v>49.58427395368687</v>
+        <v>32.68848048942796</v>
       </c>
       <c r="G13">
-        <v>1.900014945437188</v>
+        <v>43.19987530793394</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.54123067238227</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.859098965378113</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.75377517069504</v>
       </c>
       <c r="L13">
-        <v>17.92185528354407</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.16382574653602</v>
+        <v>16.85827986062122</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.28123871890168</v>
       </c>
       <c r="O13">
-        <v>38.49116069160391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.52870241150881</v>
+        <v>8.924327176145777</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.691327161819654</v>
+        <v>5.562839901944266</v>
       </c>
       <c r="E14">
-        <v>57.5020973131906</v>
+        <v>8.744159879308382</v>
       </c>
       <c r="F14">
-        <v>48.97205666377976</v>
+        <v>32.51128615824199</v>
       </c>
       <c r="G14">
-        <v>1.904052340010244</v>
+        <v>42.91908191695755</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.50675918645967</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.859126873690978</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.56623364235046</v>
       </c>
       <c r="L14">
-        <v>17.74757441750594</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>21.94719216766746</v>
+        <v>16.70508441873523</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.3307300135275</v>
       </c>
       <c r="O14">
-        <v>38.00424856534807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.37454431517778</v>
+        <v>8.874398004843902</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.648240428285714</v>
+        <v>5.545098363710312</v>
       </c>
       <c r="E15">
-        <v>57.17360777982105</v>
+        <v>8.725057408994868</v>
       </c>
       <c r="F15">
-        <v>48.59799315566426</v>
+        <v>32.40304994051441</v>
       </c>
       <c r="G15">
-        <v>1.906514398371335</v>
+        <v>42.74737404225651</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.48586611687523</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.859206098230706</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.45070372346474</v>
       </c>
       <c r="L15">
-        <v>17.64050926861088</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>21.81406052740221</v>
+        <v>16.61071590864929</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.36107135890366</v>
       </c>
       <c r="O15">
-        <v>37.70678485431156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.48273721190805</v>
+        <v>8.583473117281322</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.404872952717594</v>
+        <v>5.443023130744507</v>
       </c>
       <c r="E16">
-        <v>55.27767753554988</v>
+        <v>8.61649127806993</v>
       </c>
       <c r="F16">
-        <v>46.46630675325701</v>
+        <v>31.78742453975844</v>
       </c>
       <c r="G16">
-        <v>1.920477083344499</v>
+        <v>41.76783416234814</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.36948657332305</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.860595578736135</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.77852330792296</v>
       </c>
       <c r="L16">
-        <v>17.02179876759409</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>21.04402031639523</v>
+        <v>16.06170897295613</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.53538885770913</v>
       </c>
       <c r="O16">
-        <v>36.01214511620597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.92774979756334</v>
+        <v>8.400690958772907</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.258335299666523</v>
+        <v>5.380062048079924</v>
       </c>
       <c r="E17">
-        <v>54.10136952927301</v>
+        <v>8.550702669149965</v>
       </c>
       <c r="F17">
-        <v>45.16682702122064</v>
+        <v>31.41392913665291</v>
       </c>
       <c r="G17">
-        <v>1.928933620002251</v>
+        <v>41.17097005862876</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.301028953042</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.862264842968896</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.3570419060521</v>
       </c>
       <c r="L17">
-        <v>16.63726792446682</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20.56485981935369</v>
+        <v>15.7175059777319</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.64276230625506</v>
       </c>
       <c r="O17">
-        <v>34.97949078568319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.60548722826421</v>
+        <v>8.309853766067663</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.174921141596681</v>
+        <v>5.343731813423532</v>
       </c>
       <c r="E18">
-        <v>53.41950926590741</v>
+        <v>8.51316502791668</v>
       </c>
       <c r="F18">
-        <v>44.42157675665275</v>
+        <v>31.20065451653219</v>
       </c>
       <c r="G18">
-        <v>1.933765270222797</v>
+        <v>40.82919722939022</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.26271289238339</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.863518221167598</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.11123219659423</v>
       </c>
       <c r="L18">
-        <v>16.41413597968625</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>20.28662088193323</v>
+        <v>15.51678080778103</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.70469589976505</v>
       </c>
       <c r="O18">
-        <v>34.38738623753997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.49583816489183</v>
+        <v>8.280074200591267</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.146815700355242</v>
+        <v>5.331411852122216</v>
       </c>
       <c r="E19">
-        <v>53.18770020544952</v>
+        <v>8.500507673976438</v>
       </c>
       <c r="F19">
-        <v>44.16954894127046</v>
+        <v>31.12871147960973</v>
       </c>
       <c r="G19">
-        <v>1.935396307245267</v>
+        <v>40.71374537489215</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.24991965989497</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.86399231785716</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.02742087216794</v>
       </c>
       <c r="L19">
-        <v>16.3382390985961</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20.1919474237376</v>
+        <v>15.44834408794227</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.72569705359173</v>
       </c>
       <c r="O19">
-        <v>34.18716757739011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.98714152592077</v>
+        <v>8.420313127252923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.27384138696502</v>
+        <v>5.386776643871165</v>
       </c>
       <c r="E20">
-        <v>54.22712704804076</v>
+        <v>8.557674779068988</v>
       </c>
       <c r="F20">
-        <v>45.30491588867476</v>
+        <v>31.45352836425754</v>
       </c>
       <c r="G20">
-        <v>1.928036917008274</v>
+        <v>41.23435012135364</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.30820632295295</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.86205664163477</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.402258900735</v>
       </c>
       <c r="L20">
-        <v>16.67840192119548</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20.61613710584023</v>
+        <v>15.75443084916864</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.63131442124227</v>
       </c>
       <c r="O20">
-        <v>35.08921235472675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.60248317595839</v>
+        <v>8.948185002532432</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.71205734036498</v>
+        <v>5.571339999590337</v>
       </c>
       <c r="E21">
-        <v>57.65939648932601</v>
+        <v>8.753335891332551</v>
       </c>
       <c r="F21">
-        <v>49.15167816379466</v>
+        <v>32.56326987723674</v>
       </c>
       <c r="G21">
-        <v>1.902868798713436</v>
+        <v>43.00149823003912</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.51683797772229</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.859105687767112</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.62145550588855</v>
       </c>
       <c r="L21">
-        <v>17.79882926000716</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.01091279741264</v>
+        <v>16.75019231379914</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.31618778933924</v>
       </c>
       <c r="O21">
-        <v>38.14709794301626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.63447923818842</v>
+        <v>9.27920203425094</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.009601875317169</v>
+        <v>5.690748462154971</v>
       </c>
       <c r="E22">
-        <v>59.8655043897118</v>
+        <v>8.883835952470019</v>
       </c>
       <c r="F22">
-        <v>51.70531004296021</v>
+        <v>33.3020396315934</v>
       </c>
       <c r="G22">
-        <v>1.88595100976397</v>
+        <v>44.1693357713998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.66305889245815</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.859938974892961</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.38885034229052</v>
       </c>
       <c r="L22">
-        <v>18.51671065028402</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>22.90248355564474</v>
+        <v>17.37709964319974</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.11146197504228</v>
       </c>
       <c r="O22">
-        <v>40.1787146762206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.08566357792722</v>
+        <v>9.103800511705282</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.849582768862819</v>
+        <v>5.62713669989671</v>
       </c>
       <c r="E23">
-        <v>58.69088902165074</v>
+        <v>8.813948324175993</v>
       </c>
       <c r="F23">
-        <v>50.33760920324536</v>
+        <v>32.90652053309264</v>
       </c>
       <c r="G23">
-        <v>1.895033463408626</v>
+        <v>43.54488183846235</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.58409371290509</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.85923396889916</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.98193279054587</v>
       </c>
       <c r="L23">
-        <v>18.13470884303296</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>22.42827160642866</v>
+        <v>17.04466232935097</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.2206325070037</v>
       </c>
       <c r="O23">
-        <v>39.09041854031243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.9603005054971</v>
+        <v>8.411447058588029</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.266828526293142</v>
+        <v>5.383741387539896</v>
       </c>
       <c r="E24">
-        <v>54.17028956927275</v>
+        <v>8.554521799330804</v>
       </c>
       <c r="F24">
-        <v>45.24248038692556</v>
+        <v>31.43562102401404</v>
       </c>
       <c r="G24">
-        <v>1.928442408440914</v>
+        <v>41.2056917114823</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.30495819594706</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.862149856294548</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.38182718960566</v>
       </c>
       <c r="L24">
-        <v>16.65981168902253</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>20.59296328704549</v>
+        <v>15.73774596186211</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.63648937364277</v>
       </c>
       <c r="O24">
-        <v>35.03960247042249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.69829487905717</v>
+        <v>7.752992427770362</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.670597478841013</v>
+        <v>5.11688139504459</v>
       </c>
       <c r="E25">
-        <v>49.08953879912645</v>
+        <v>8.286296213330829</v>
       </c>
       <c r="F25">
-        <v>39.82461500344545</v>
+        <v>29.90864087744542</v>
       </c>
       <c r="G25">
-        <v>1.963299615952838</v>
+        <v>38.74174547045251</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.04408871293317</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.876429378249907</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.52608841958808</v>
       </c>
       <c r="L25">
-        <v>14.99295244139381</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.51120404171977</v>
+        <v>14.3784990764349</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.09192416520479</v>
       </c>
       <c r="O25">
-        <v>30.73655904930854</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.247021930168415</v>
+        <v>7.829496891513515</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.917819119107413</v>
+        <v>7.807266741131357</v>
       </c>
       <c r="E2">
-        <v>8.099167900165597</v>
+        <v>12.84878488013075</v>
       </c>
       <c r="F2">
-        <v>28.83798999217765</v>
+        <v>38.55121716906317</v>
       </c>
       <c r="G2">
-        <v>36.98435255108708</v>
+        <v>44.5519243583317</v>
       </c>
       <c r="H2">
-        <v>11.88414490691287</v>
+        <v>18.1106718550022</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.895772257101732</v>
+        <v>10.10306241195581</v>
       </c>
       <c r="K2">
-        <v>16.04440103267355</v>
+        <v>13.55956539087151</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.46994212450596</v>
+        <v>16.91879994382163</v>
       </c>
       <c r="N2">
-        <v>13.43484587512168</v>
+        <v>20.54998897460586</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.890154017077188</v>
+        <v>7.759531012027722</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.782002153134915</v>
+        <v>7.799845262515726</v>
       </c>
       <c r="E3">
-        <v>7.979022559862532</v>
+        <v>12.85954614347802</v>
       </c>
       <c r="F3">
-        <v>28.14736881168015</v>
+        <v>38.54655489067291</v>
       </c>
       <c r="G3">
-        <v>35.83273965650379</v>
+        <v>44.47163725919039</v>
       </c>
       <c r="H3">
-        <v>11.79451031252659</v>
+        <v>18.14631825128028</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.914041331324247</v>
+        <v>10.12477245294603</v>
       </c>
       <c r="K3">
-        <v>14.96664013509527</v>
+        <v>13.29821569749464</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.83304747288683</v>
+        <v>16.83116551171566</v>
       </c>
       <c r="N3">
-        <v>13.67274493989295</v>
+        <v>20.61813602253495</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.664860055973546</v>
+        <v>7.718118484130859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.698425954565939</v>
+        <v>7.796234140675544</v>
       </c>
       <c r="E4">
-        <v>7.90861105805155</v>
+        <v>12.86806121040808</v>
       </c>
       <c r="F4">
-        <v>27.74109027420328</v>
+        <v>38.55308244084056</v>
       </c>
       <c r="G4">
-        <v>35.14658100770628</v>
+        <v>44.43547865316583</v>
       </c>
       <c r="H4">
-        <v>11.7482827342828</v>
+        <v>18.17158333852938</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.927695802677508</v>
+        <v>10.13920507039803</v>
       </c>
       <c r="K4">
-        <v>14.2680840772574</v>
+        <v>13.138181254169</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.43270806589216</v>
+        <v>16.78037883314383</v>
       </c>
       <c r="N4">
-        <v>13.8217606039037</v>
+        <v>20.66189904060725</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57162665916807</v>
+        <v>7.701649965198593</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.664364932966853</v>
+        <v>7.795001770148109</v>
       </c>
       <c r="E5">
-        <v>7.880771806207819</v>
+        <v>12.87201122921828</v>
       </c>
       <c r="F5">
-        <v>27.58007127976601</v>
+        <v>38.55810279248468</v>
       </c>
       <c r="G5">
-        <v>34.87246865775864</v>
+        <v>44.42405339397921</v>
       </c>
       <c r="H5">
-        <v>11.7315915769608</v>
+        <v>18.18272711173535</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.9338576060589</v>
+        <v>10.14536401913666</v>
       </c>
       <c r="K5">
-        <v>13.97409498090144</v>
+        <v>13.07316791292075</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.26744164930445</v>
+        <v>16.76045877407498</v>
       </c>
       <c r="N5">
-        <v>13.88325822459605</v>
+        <v>20.6802172196804</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.556063462339742</v>
+        <v>7.698940512139804</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.658710251877444</v>
+        <v>7.794811621091373</v>
       </c>
       <c r="E6">
-        <v>7.876200947946929</v>
+        <v>12.87269613026118</v>
       </c>
       <c r="F6">
-        <v>27.55361057468519</v>
+        <v>38.55907892025787</v>
       </c>
       <c r="G6">
-        <v>34.82729176630585</v>
+        <v>44.42235624082122</v>
       </c>
       <c r="H6">
-        <v>11.7289476593708</v>
+        <v>18.18462870331501</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.934916418884946</v>
+        <v>10.14640347915501</v>
       </c>
       <c r="K6">
-        <v>13.92471346855239</v>
+        <v>13.06238742585115</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.23987773555561</v>
+        <v>16.75719838025646</v>
       </c>
       <c r="N6">
-        <v>13.8935174235219</v>
+        <v>20.68328823906543</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66360825965511</v>
+        <v>7.717894710449968</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.697966549158158</v>
+        <v>7.796216550252526</v>
       </c>
       <c r="E7">
-        <v>7.908232138823252</v>
+        <v>12.86811253757275</v>
       </c>
       <c r="F7">
-        <v>27.73890022968468</v>
+        <v>38.55314059257982</v>
       </c>
       <c r="G7">
-        <v>35.14286163883148</v>
+        <v>44.43531116218764</v>
       </c>
       <c r="H7">
-        <v>11.74804903012311</v>
+        <v>18.17173019562829</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.927776503503343</v>
+        <v>10.13928700800184</v>
       </c>
       <c r="K7">
-        <v>14.26415706523472</v>
+        <v>13.13730352046941</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.43048752700258</v>
+        <v>16.78010702196158</v>
       </c>
       <c r="N7">
-        <v>13.82258681313082</v>
+        <v>20.66214412274068</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.125326591951979</v>
+        <v>7.80506292094047</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.871052778597849</v>
+        <v>7.804512396510349</v>
       </c>
       <c r="E8">
-        <v>8.057050925597597</v>
+        <v>12.85209969335688</v>
       </c>
       <c r="F8">
-        <v>28.59622433295158</v>
+        <v>38.54766054470999</v>
       </c>
       <c r="G8">
-        <v>36.58307369432654</v>
+        <v>44.52151922724986</v>
       </c>
       <c r="H8">
-        <v>11.85137052604818</v>
+        <v>18.12226081439524</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.901556160551086</v>
+        <v>10.11031937226153</v>
       </c>
       <c r="K8">
-        <v>15.68038634136406</v>
+        <v>13.46941672107073</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.25238300174469</v>
+        <v>16.8879665821401</v>
       </c>
       <c r="N8">
-        <v>13.51628215235401</v>
+        <v>20.57308838161759</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977097815349889</v>
+        <v>7.987427432585218</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.207257597707017</v>
+        <v>7.828219979258097</v>
       </c>
       <c r="E9">
-        <v>8.375065814616441</v>
+        <v>12.83581522777338</v>
       </c>
       <c r="F9">
-        <v>30.41485717493119</v>
+        <v>38.61140366070799</v>
       </c>
       <c r="G9">
-        <v>39.56337162741048</v>
+        <v>44.79439624444979</v>
       </c>
       <c r="H9">
-        <v>12.12680492284009</v>
+        <v>18.05211326206515</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.870199697993692</v>
+        <v>10.0622493992597</v>
       </c>
       <c r="K9">
-        <v>18.16887421386745</v>
+        <v>14.12016703637635</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.78294740098594</v>
+        <v>17.1226915378806</v>
       </c>
       <c r="N9">
-        <v>12.93743875365437</v>
+        <v>20.41361949311607</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.604114625609666</v>
+        <v>8.127205991997347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.450190970306901</v>
+        <v>7.850082372516799</v>
       </c>
       <c r="E10">
-        <v>8.624038917450259</v>
+        <v>12.83303635628736</v>
       </c>
       <c r="F10">
-        <v>31.83025167216545</v>
+        <v>38.70353665969108</v>
       </c>
       <c r="G10">
-        <v>41.83614453336439</v>
+        <v>45.05738158673579</v>
       </c>
       <c r="H10">
-        <v>12.3774430435809</v>
+        <v>18.01702536370973</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.860445339418628</v>
+        <v>10.03224030709416</v>
       </c>
       <c r="K10">
-        <v>19.82616098594578</v>
+        <v>14.5928074019517</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.10061443279785</v>
+        <v>17.30821521214678</v>
       </c>
       <c r="N10">
-        <v>12.52315945200957</v>
+        <v>20.30560710286491</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.9147976982216</v>
+        <v>8.191796378730208</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.559448801710628</v>
+        <v>7.860971811980322</v>
       </c>
       <c r="E11">
-        <v>8.7405034310065</v>
+        <v>12.83375805395153</v>
       </c>
       <c r="F11">
-        <v>32.49057024084812</v>
+        <v>38.75523180053254</v>
       </c>
       <c r="G11">
-        <v>42.88622909572852</v>
+        <v>45.19035017317876</v>
       </c>
       <c r="H11">
-        <v>12.50275068151017</v>
+        <v>18.00464777056677</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.859138352798728</v>
+        <v>10.01973726755468</v>
       </c>
       <c r="K11">
-        <v>20.54417972322171</v>
+        <v>14.80561298096385</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.68706987518658</v>
+        <v>17.39520558508057</v>
       </c>
       <c r="N11">
-        <v>12.33653060425647</v>
+        <v>20.25843519578416</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.030045980934295</v>
+        <v>8.216377725111933</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.600615633960379</v>
+        <v>7.865229121018112</v>
       </c>
       <c r="E12">
-        <v>8.785056781920607</v>
+        <v>12.83431594045627</v>
       </c>
       <c r="F12">
-        <v>32.74293395100601</v>
+        <v>38.77620683586462</v>
       </c>
       <c r="G12">
-        <v>43.28608979981545</v>
+        <v>45.24259352818417</v>
       </c>
       <c r="H12">
-        <v>12.55188974003548</v>
+        <v>18.00047685124493</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.85911536550197</v>
+        <v>10.01516752254066</v>
       </c>
       <c r="K12">
-        <v>20.81102106984309</v>
+        <v>14.88580051400896</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.90504320187357</v>
+        <v>17.428497745881</v>
       </c>
       <c r="N12">
-        <v>12.26607321245343</v>
+        <v>20.24085321573499</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.005331468626702</v>
+        <v>8.211078601107543</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.591759192003257</v>
+        <v>7.864306320054329</v>
       </c>
       <c r="E13">
-        <v>8.775441513647872</v>
+        <v>12.83418314880669</v>
       </c>
       <c r="F13">
-        <v>32.68848048942796</v>
+        <v>38.7716273949646</v>
       </c>
       <c r="G13">
-        <v>43.19987530793394</v>
+        <v>45.23125834074686</v>
       </c>
       <c r="H13">
-        <v>12.54123067238227</v>
+        <v>18.00135216363326</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.859098965378113</v>
+        <v>10.01614436930063</v>
       </c>
       <c r="K13">
-        <v>20.75377517069504</v>
+        <v>14.86854960420601</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.85827986062122</v>
+        <v>17.42131244319784</v>
       </c>
       <c r="N13">
-        <v>12.28123871890168</v>
+        <v>20.24462733361757</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.924327176145777</v>
+        <v>8.193816374775167</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.562839901944266</v>
+        <v>7.861319395612369</v>
       </c>
       <c r="E14">
-        <v>8.744159879308382</v>
+        <v>12.83379825384883</v>
       </c>
       <c r="F14">
-        <v>32.51128615824199</v>
+        <v>38.75692943646813</v>
       </c>
       <c r="G14">
-        <v>42.91908191695755</v>
+        <v>45.19461053018743</v>
       </c>
       <c r="H14">
-        <v>12.50675918645967</v>
+        <v>18.00429427687298</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.859126873690978</v>
+        <v>10.01935800867768</v>
       </c>
       <c r="K14">
-        <v>20.56623364235046</v>
+        <v>14.81221846751297</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.70508441873523</v>
+        <v>17.39793765064423</v>
       </c>
       <c r="N14">
-        <v>12.3307300135275</v>
+        <v>20.25698309177702</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.874398004843902</v>
+        <v>8.18325804401575</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.545098363710312</v>
+        <v>7.859507169196693</v>
       </c>
       <c r="E15">
-        <v>8.725057408994868</v>
+        <v>12.83359952660431</v>
       </c>
       <c r="F15">
-        <v>32.40304994051441</v>
+        <v>38.74810847700772</v>
       </c>
       <c r="G15">
-        <v>42.74737404225651</v>
+        <v>45.17240811179201</v>
       </c>
       <c r="H15">
-        <v>12.48586611687523</v>
+        <v>18.00616365301207</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.859206098230706</v>
+        <v>10.02134792155123</v>
       </c>
       <c r="K15">
-        <v>20.45070372346474</v>
+        <v>14.77765995429272</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.61071590864929</v>
+        <v>17.38366492668554</v>
       </c>
       <c r="N15">
-        <v>12.36107135890366</v>
+        <v>20.2645879047686</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.583473117281322</v>
+        <v>8.123003183777156</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.443023130744507</v>
+        <v>7.849389547380882</v>
       </c>
       <c r="E16">
-        <v>8.61649127806993</v>
+        <v>12.83302907187462</v>
       </c>
       <c r="F16">
-        <v>31.78742453975844</v>
+        <v>38.70035451131518</v>
       </c>
       <c r="G16">
-        <v>41.76783416234814</v>
+        <v>45.04895792278876</v>
       </c>
       <c r="H16">
-        <v>12.36948657332305</v>
+        <v>18.01790646326035</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.860595578736135</v>
+        <v>10.03308049599832</v>
       </c>
       <c r="K16">
-        <v>19.77852330792296</v>
+        <v>14.57884875758503</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06170897295613</v>
+        <v>17.30258050441063</v>
       </c>
       <c r="N16">
-        <v>12.53538885770913</v>
+        <v>20.30872929255812</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.400690958772907</v>
+        <v>8.086280342345036</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.380062048079924</v>
+        <v>7.843423101474074</v>
       </c>
       <c r="E17">
-        <v>8.550702669149965</v>
+        <v>12.83318708595332</v>
       </c>
       <c r="F17">
-        <v>31.41392913665291</v>
+        <v>38.67355983488178</v>
       </c>
       <c r="G17">
-        <v>41.17097005862876</v>
+        <v>44.9766228832015</v>
       </c>
       <c r="H17">
-        <v>12.301028953042</v>
+        <v>18.02602890112709</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.862264842968896</v>
+        <v>10.04057197929768</v>
       </c>
       <c r="K17">
-        <v>19.3570419060521</v>
+        <v>14.45626190764618</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.7175059777319</v>
+        <v>17.2534867174126</v>
       </c>
       <c r="N17">
-        <v>12.64276230625506</v>
+        <v>20.33631053411582</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.309853766067663</v>
+        <v>8.065254201197847</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.343731813423532</v>
+        <v>7.840080354446459</v>
       </c>
       <c r="E18">
-        <v>8.51316502791668</v>
+        <v>12.83346495163462</v>
       </c>
       <c r="F18">
-        <v>31.20065451653219</v>
+        <v>38.65906966139854</v>
       </c>
       <c r="G18">
-        <v>40.82919722939022</v>
+        <v>44.93627466380784</v>
       </c>
       <c r="H18">
-        <v>12.26271289238339</v>
+        <v>18.03103802326279</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.863518221167598</v>
+        <v>10.04498897468371</v>
       </c>
       <c r="K18">
-        <v>19.11123219659423</v>
+        <v>14.38555059645225</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.51678080778103</v>
+        <v>17.22549487411841</v>
       </c>
       <c r="N18">
-        <v>12.70469589976505</v>
+        <v>20.35235942571053</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.280074200591267</v>
+        <v>8.058152248210337</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.331411852122216</v>
+        <v>7.838963903480558</v>
       </c>
       <c r="E19">
-        <v>8.500507673976438</v>
+        <v>12.83359117355086</v>
       </c>
       <c r="F19">
-        <v>31.12871147960973</v>
+        <v>38.65432199815189</v>
       </c>
       <c r="G19">
-        <v>40.71374537489215</v>
+        <v>44.92283009188656</v>
       </c>
       <c r="H19">
-        <v>12.24991965989497</v>
+        <v>18.0327919316254</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.86399231785716</v>
+        <v>10.04650306544526</v>
       </c>
       <c r="K19">
-        <v>19.02742087216794</v>
+        <v>14.36157670095502</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.44834408794227</v>
+        <v>17.21606017014466</v>
       </c>
       <c r="N19">
-        <v>12.72569705359173</v>
+        <v>20.35782510110818</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.420313127252923</v>
+        <v>8.090179789569319</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.386776643871165</v>
+        <v>7.844049043729255</v>
       </c>
       <c r="E20">
-        <v>8.557674779068988</v>
+        <v>12.83315091993443</v>
       </c>
       <c r="F20">
-        <v>31.45352836425754</v>
+        <v>38.67631686101382</v>
       </c>
       <c r="G20">
-        <v>41.23435012135364</v>
+        <v>44.98419316031775</v>
       </c>
       <c r="H20">
-        <v>12.30820632295295</v>
+        <v>18.0251293368293</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.86205664163477</v>
+        <v>10.03976331263489</v>
       </c>
       <c r="K20">
-        <v>19.402258900735</v>
+        <v>14.46933305486868</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.75443084916864</v>
+        <v>17.25868757552544</v>
       </c>
       <c r="N20">
-        <v>12.63131442124227</v>
+        <v>20.33335533811843</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.948185002532432</v>
+        <v>8.198883563817375</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.571339999590337</v>
+        <v>7.862193115580402</v>
       </c>
       <c r="E21">
-        <v>8.753335891332551</v>
+        <v>12.83390359127734</v>
       </c>
       <c r="F21">
-        <v>32.56326987723674</v>
+        <v>38.76120867775757</v>
       </c>
       <c r="G21">
-        <v>43.00149823003912</v>
+        <v>45.20532378644398</v>
       </c>
       <c r="H21">
-        <v>12.51683797772229</v>
+        <v>18.00341609148782</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.859105687767112</v>
+        <v>10.01840961182038</v>
       </c>
       <c r="K21">
-        <v>20.62145550588855</v>
+        <v>14.82877569295754</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.75019231379914</v>
+        <v>17.40479405411343</v>
       </c>
       <c r="N21">
-        <v>12.31618778933924</v>
+        <v>20.25334629059063</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.27920203425094</v>
+        <v>8.270630824049006</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.690748462154971</v>
+        <v>7.874829685723606</v>
       </c>
       <c r="E22">
-        <v>8.883835952470019</v>
+        <v>12.83605381119366</v>
       </c>
       <c r="F22">
-        <v>33.3020396315934</v>
+        <v>38.82484138182688</v>
       </c>
       <c r="G22">
-        <v>44.1693357713998</v>
+        <v>45.36085320466478</v>
       </c>
       <c r="H22">
-        <v>12.66305889245815</v>
+        <v>17.99223433791227</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.859938974892961</v>
+        <v>10.00541470005415</v>
       </c>
       <c r="K22">
-        <v>21.38885034229052</v>
+        <v>15.06134206194289</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.37709964319974</v>
+        <v>17.50231704578313</v>
       </c>
       <c r="N22">
-        <v>12.11146197504228</v>
+        <v>20.20269300335737</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.103800511705282</v>
+        <v>8.232280911021705</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.62713669989671</v>
+        <v>7.868014792377785</v>
       </c>
       <c r="E23">
-        <v>8.813948324175993</v>
+        <v>12.83475481311991</v>
       </c>
       <c r="F23">
-        <v>32.90652053309264</v>
+        <v>38.79013652413808</v>
       </c>
       <c r="G23">
-        <v>43.54488183846235</v>
+        <v>45.27684664252718</v>
       </c>
       <c r="H23">
-        <v>12.58409371290509</v>
+        <v>17.99792668929492</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.85923396889916</v>
+        <v>10.01226247735902</v>
       </c>
       <c r="K23">
-        <v>20.98193279054587</v>
+        <v>14.93745758956079</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.04466232935097</v>
+        <v>17.45008860004906</v>
       </c>
       <c r="N23">
-        <v>12.2206325070037</v>
+        <v>20.2295782498588</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.411447058588029</v>
+        <v>8.088416578962773</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.383741387539896</v>
+        <v>7.843765782724656</v>
       </c>
       <c r="E24">
-        <v>8.554521799330804</v>
+        <v>12.83316668797592</v>
       </c>
       <c r="F24">
-        <v>31.43562102401404</v>
+        <v>38.67506756041122</v>
       </c>
       <c r="G24">
-        <v>41.2056917114823</v>
+        <v>44.98076677915725</v>
       </c>
       <c r="H24">
-        <v>12.30495819594706</v>
+        <v>18.02553497256426</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.862149856294548</v>
+        <v>10.04012856804</v>
       </c>
       <c r="K24">
-        <v>19.38182718960566</v>
+        <v>14.46342431338525</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.73774596186211</v>
+        <v>17.25633554061724</v>
       </c>
       <c r="N24">
-        <v>12.63648937364277</v>
+        <v>20.33469078380329</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.752992427770362</v>
+        <v>7.936988797606957</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.11688139504459</v>
+        <v>7.821018969271554</v>
       </c>
       <c r="E25">
-        <v>8.286296213330829</v>
+        <v>12.83860492807831</v>
       </c>
       <c r="F25">
-        <v>29.90864087744542</v>
+        <v>38.58619003344756</v>
       </c>
       <c r="G25">
-        <v>38.74174547045251</v>
+        <v>44.70952831655131</v>
       </c>
       <c r="H25">
-        <v>12.04408871293317</v>
+        <v>18.06820608415866</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.876429378249907</v>
+        <v>10.07432021246648</v>
       </c>
       <c r="K25">
-        <v>17.52608841958808</v>
+        <v>13.94472136185739</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.3784990764349</v>
+        <v>17.05681509287861</v>
       </c>
       <c r="N25">
-        <v>13.09192416520479</v>
+        <v>20.4551462736904</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.829496891513515</v>
+        <v>7.247021930168454</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.807266741131357</v>
+        <v>4.917819119107406</v>
       </c>
       <c r="E2">
-        <v>12.84878488013075</v>
+        <v>8.09916790016568</v>
       </c>
       <c r="F2">
-        <v>38.55121716906317</v>
+        <v>28.83798999217765</v>
       </c>
       <c r="G2">
-        <v>44.5519243583317</v>
+        <v>36.98435255108708</v>
       </c>
       <c r="H2">
-        <v>18.1106718550022</v>
+        <v>11.88414490691287</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.10306241195581</v>
+        <v>5.895772257101846</v>
       </c>
       <c r="K2">
-        <v>13.55956539087151</v>
+        <v>16.04440103267357</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.91879994382163</v>
+        <v>13.46994212450597</v>
       </c>
       <c r="N2">
-        <v>20.54998897460586</v>
+        <v>13.43484587512171</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.759531012027722</v>
+        <v>6.890154017077227</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.799845262515726</v>
+        <v>4.782002153134855</v>
       </c>
       <c r="E3">
-        <v>12.85954614347802</v>
+        <v>7.97902255986244</v>
       </c>
       <c r="F3">
-        <v>38.54655489067291</v>
+        <v>28.1473688116802</v>
       </c>
       <c r="G3">
-        <v>44.47163725919039</v>
+        <v>35.83273965650397</v>
       </c>
       <c r="H3">
-        <v>18.14631825128028</v>
+        <v>11.79451031252663</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.12477245294603</v>
+        <v>5.914041331324189</v>
       </c>
       <c r="K3">
-        <v>13.29821569749464</v>
+        <v>14.96664013509524</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.83116551171566</v>
+        <v>12.83304747288681</v>
       </c>
       <c r="N3">
-        <v>20.61813602253495</v>
+        <v>13.67274493989299</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.718118484130859</v>
+        <v>6.664860055973566</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.796234140675544</v>
+        <v>4.698425954565928</v>
       </c>
       <c r="E4">
-        <v>12.86806121040808</v>
+        <v>7.908611058051586</v>
       </c>
       <c r="F4">
-        <v>38.55308244084056</v>
+        <v>27.74109027420314</v>
       </c>
       <c r="G4">
-        <v>44.43547865316583</v>
+        <v>35.14658100770612</v>
       </c>
       <c r="H4">
-        <v>18.17158333852938</v>
+        <v>11.74828273428281</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.13920507039803</v>
+        <v>5.927695802677537</v>
       </c>
       <c r="K4">
-        <v>13.138181254169</v>
+        <v>14.26808407725743</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.78037883314383</v>
+        <v>12.43270806589214</v>
       </c>
       <c r="N4">
-        <v>20.66189904060725</v>
+        <v>13.82176060390367</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.701649965198593</v>
+        <v>6.571626659168019</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.795001770148109</v>
+        <v>4.664364932966841</v>
       </c>
       <c r="E5">
-        <v>12.87201122921828</v>
+        <v>7.880771806207767</v>
       </c>
       <c r="F5">
-        <v>38.55810279248468</v>
+        <v>27.58007127976613</v>
       </c>
       <c r="G5">
-        <v>44.42405339397921</v>
+        <v>34.87246865775885</v>
       </c>
       <c r="H5">
-        <v>18.18272711173535</v>
+        <v>11.73159157696084</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.14536401913666</v>
+        <v>5.933857606058836</v>
       </c>
       <c r="K5">
-        <v>13.07316791292075</v>
+        <v>13.9740949809014</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.76045877407498</v>
+        <v>12.26744164930444</v>
       </c>
       <c r="N5">
-        <v>20.6802172196804</v>
+        <v>13.88325822459616</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.698940512139804</v>
+        <v>6.556063462339705</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.794811621091373</v>
+        <v>4.658710251877438</v>
       </c>
       <c r="E6">
-        <v>12.87269613026118</v>
+        <v>7.876200947946925</v>
       </c>
       <c r="F6">
-        <v>38.55907892025787</v>
+        <v>27.55361057468506</v>
       </c>
       <c r="G6">
-        <v>44.42235624082122</v>
+        <v>34.82729176630564</v>
       </c>
       <c r="H6">
-        <v>18.18462870331501</v>
+        <v>11.72894765937079</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.14640347915501</v>
+        <v>5.934916418884914</v>
       </c>
       <c r="K6">
-        <v>13.06238742585115</v>
+        <v>13.92471346855241</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.75719838025646</v>
+        <v>12.23987773555559</v>
       </c>
       <c r="N6">
-        <v>20.68328823906543</v>
+        <v>13.8935174235218</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.717894710449968</v>
+        <v>6.663608259655178</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.796216550252526</v>
+        <v>4.69796654915814</v>
       </c>
       <c r="E7">
-        <v>12.86811253757275</v>
+        <v>7.908232138823197</v>
       </c>
       <c r="F7">
-        <v>38.55314059257982</v>
+        <v>27.73890022968484</v>
       </c>
       <c r="G7">
-        <v>44.43531116218764</v>
+        <v>35.1428616388316</v>
       </c>
       <c r="H7">
-        <v>18.17173019562829</v>
+        <v>11.74804903012321</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.13928700800184</v>
+        <v>5.927776503503313</v>
       </c>
       <c r="K7">
-        <v>13.13730352046941</v>
+        <v>14.26415706523467</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.78010702196158</v>
+        <v>12.43048752700257</v>
       </c>
       <c r="N7">
-        <v>20.66214412274068</v>
+        <v>13.82258681313092</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.80506292094047</v>
+        <v>7.125326591951964</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.804512396510349</v>
+        <v>4.871052778597862</v>
       </c>
       <c r="E8">
-        <v>12.85209969335688</v>
+        <v>8.057050925597599</v>
       </c>
       <c r="F8">
-        <v>38.54766054470999</v>
+        <v>28.5962243329516</v>
       </c>
       <c r="G8">
-        <v>44.52151922724986</v>
+        <v>36.58307369432657</v>
       </c>
       <c r="H8">
-        <v>18.12226081439524</v>
+        <v>11.85137052604819</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.11031937226153</v>
+        <v>5.901556160551054</v>
       </c>
       <c r="K8">
-        <v>13.46941672107073</v>
+        <v>15.68038634136407</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.8879665821401</v>
+        <v>13.2523830017447</v>
       </c>
       <c r="N8">
-        <v>20.57308838161759</v>
+        <v>13.51628215235401</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.987427432585218</v>
+        <v>7.977097815349916</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.828219979258097</v>
+        <v>5.20725759770705</v>
       </c>
       <c r="E9">
-        <v>12.83581522777338</v>
+        <v>8.375065814616466</v>
       </c>
       <c r="F9">
-        <v>38.61140366070799</v>
+        <v>30.41485717493124</v>
       </c>
       <c r="G9">
-        <v>44.79439624444979</v>
+        <v>39.5633716274105</v>
       </c>
       <c r="H9">
-        <v>18.05211326206515</v>
+        <v>12.12680492284009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.0622493992597</v>
+        <v>5.870199697993655</v>
       </c>
       <c r="K9">
-        <v>14.12016703637635</v>
+        <v>18.16887421386743</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.1226915378806</v>
+        <v>14.78294740098595</v>
       </c>
       <c r="N9">
-        <v>20.41361949311607</v>
+        <v>12.93743875365433</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.127205991997347</v>
+        <v>8.604114625609666</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.850082372516799</v>
+        <v>5.450190970306901</v>
       </c>
       <c r="E10">
-        <v>12.83303635628736</v>
+        <v>8.624038917450221</v>
       </c>
       <c r="F10">
-        <v>38.70353665969108</v>
+        <v>31.83025167216546</v>
       </c>
       <c r="G10">
-        <v>45.05738158673579</v>
+        <v>41.83614453336439</v>
       </c>
       <c r="H10">
-        <v>18.01702536370973</v>
+        <v>12.37744304358093</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.03224030709416</v>
+        <v>5.860445339418574</v>
       </c>
       <c r="K10">
-        <v>14.5928074019517</v>
+        <v>19.82616098594574</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.30821521214678</v>
+        <v>16.10061443279785</v>
       </c>
       <c r="N10">
-        <v>20.30560710286491</v>
+        <v>12.52315945200957</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.191796378730208</v>
+        <v>8.914797698221582</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.860971811980322</v>
+        <v>5.559448801710644</v>
       </c>
       <c r="E11">
-        <v>12.83375805395153</v>
+        <v>8.740503431006568</v>
       </c>
       <c r="F11">
-        <v>38.75523180053254</v>
+        <v>32.49057024084814</v>
       </c>
       <c r="G11">
-        <v>45.19035017317876</v>
+        <v>42.8862290957286</v>
       </c>
       <c r="H11">
-        <v>18.00464777056677</v>
+        <v>12.50275068151019</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.01973726755468</v>
+        <v>5.859138352798772</v>
       </c>
       <c r="K11">
-        <v>14.80561298096385</v>
+        <v>20.54417972322173</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.39520558508057</v>
+        <v>16.68706987518655</v>
       </c>
       <c r="N11">
-        <v>20.25843519578416</v>
+        <v>12.33653060425653</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.216377725111933</v>
+        <v>9.030045980934295</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.865229121018112</v>
+        <v>5.600615633960428</v>
       </c>
       <c r="E12">
-        <v>12.83431594045627</v>
+        <v>8.78505678192073</v>
       </c>
       <c r="F12">
-        <v>38.77620683586462</v>
+        <v>32.74293395100607</v>
       </c>
       <c r="G12">
-        <v>45.24259352818417</v>
+        <v>43.28608979981549</v>
       </c>
       <c r="H12">
-        <v>18.00047685124493</v>
+        <v>12.55188974003555</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.01516752254066</v>
+        <v>5.859115365502001</v>
       </c>
       <c r="K12">
-        <v>14.88580051400896</v>
+        <v>20.8110210698431</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.428497745881</v>
+        <v>16.90504320187354</v>
       </c>
       <c r="N12">
-        <v>20.24085321573499</v>
+        <v>12.2660732124535</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.211078601107543</v>
+        <v>9.005331468626695</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.864306320054329</v>
+        <v>5.591759192003231</v>
       </c>
       <c r="E13">
-        <v>12.83418314880669</v>
+        <v>8.775441513647882</v>
       </c>
       <c r="F13">
-        <v>38.7716273949646</v>
+        <v>32.68848048942793</v>
       </c>
       <c r="G13">
-        <v>45.23125834074686</v>
+        <v>43.19987530793394</v>
       </c>
       <c r="H13">
-        <v>18.00135216363326</v>
+        <v>12.54123067238225</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.01614436930063</v>
+        <v>5.859098965378165</v>
       </c>
       <c r="K13">
-        <v>14.86854960420601</v>
+        <v>20.75377517069505</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.42131244319784</v>
+        <v>16.85827986062122</v>
       </c>
       <c r="N13">
-        <v>20.24462733361757</v>
+        <v>12.28123871890161</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.193816374775167</v>
+        <v>8.924327176145761</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.861319395612369</v>
+        <v>5.562839901944266</v>
       </c>
       <c r="E14">
-        <v>12.83379825384883</v>
+        <v>8.744159879308382</v>
       </c>
       <c r="F14">
-        <v>38.75692943646813</v>
+        <v>32.51128615824196</v>
       </c>
       <c r="G14">
-        <v>45.19461053018743</v>
+        <v>42.91908191695756</v>
       </c>
       <c r="H14">
-        <v>18.00429427687298</v>
+        <v>12.50675918645965</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.01935800867768</v>
+        <v>5.859126873690951</v>
       </c>
       <c r="K14">
-        <v>14.81221846751297</v>
+        <v>20.56623364235044</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.39793765064423</v>
+        <v>16.70508441873521</v>
       </c>
       <c r="N14">
-        <v>20.25698309177702</v>
+        <v>12.33073001352754</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.18325804401575</v>
+        <v>8.87439800484394</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.859507169196693</v>
+        <v>5.545098363710306</v>
       </c>
       <c r="E15">
-        <v>12.83359952660431</v>
+        <v>8.725057408994779</v>
       </c>
       <c r="F15">
-        <v>38.74810847700772</v>
+        <v>32.40304994051434</v>
       </c>
       <c r="G15">
-        <v>45.17240811179201</v>
+        <v>42.74737404225642</v>
       </c>
       <c r="H15">
-        <v>18.00616365301207</v>
+        <v>12.48586611687521</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.02134792155123</v>
+        <v>5.859206098230684</v>
       </c>
       <c r="K15">
-        <v>14.77765995429272</v>
+        <v>20.45070372346483</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.38366492668554</v>
+        <v>16.61071590864935</v>
       </c>
       <c r="N15">
-        <v>20.2645879047686</v>
+        <v>12.36107135890363</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.123003183777156</v>
+        <v>8.583473117281368</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.849389547380882</v>
+        <v>5.443023130744435</v>
       </c>
       <c r="E16">
-        <v>12.83302907187462</v>
+        <v>8.616491278069887</v>
       </c>
       <c r="F16">
-        <v>38.70035451131518</v>
+        <v>31.78742453975845</v>
       </c>
       <c r="G16">
-        <v>45.04895792278876</v>
+        <v>41.76783416234819</v>
       </c>
       <c r="H16">
-        <v>18.01790646326035</v>
+        <v>12.36948657332305</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.03308049599832</v>
+        <v>5.860595578736132</v>
       </c>
       <c r="K16">
-        <v>14.57884875758503</v>
+        <v>19.77852330792297</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.30258050441063</v>
+        <v>16.06170897295614</v>
       </c>
       <c r="N16">
-        <v>20.30872929255812</v>
+        <v>12.53538885770913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.086280342345036</v>
+        <v>8.400690958772918</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.843423101474074</v>
+        <v>5.380062048079873</v>
       </c>
       <c r="E17">
-        <v>12.83318708595332</v>
+        <v>8.550702669149926</v>
       </c>
       <c r="F17">
-        <v>38.67355983488178</v>
+        <v>31.41392913665285</v>
       </c>
       <c r="G17">
-        <v>44.9766228832015</v>
+        <v>41.17097005862876</v>
       </c>
       <c r="H17">
-        <v>18.02602890112709</v>
+        <v>12.3010289530419</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.04057197929768</v>
+        <v>5.862264842968866</v>
       </c>
       <c r="K17">
-        <v>14.45626190764618</v>
+        <v>19.35704190605216</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.2534867174126</v>
+        <v>15.71750597773192</v>
       </c>
       <c r="N17">
-        <v>20.33631053411582</v>
+        <v>12.64276230625496</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.065254201197847</v>
+        <v>8.309853766067663</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.840080354446459</v>
+        <v>5.343731813423495</v>
       </c>
       <c r="E18">
-        <v>12.83346495163462</v>
+        <v>8.513165027916674</v>
       </c>
       <c r="F18">
-        <v>38.65906966139854</v>
+        <v>31.20065451653217</v>
       </c>
       <c r="G18">
-        <v>44.93627466380784</v>
+        <v>40.82919722939018</v>
       </c>
       <c r="H18">
-        <v>18.03103802326279</v>
+        <v>12.26271289238339</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.04498897468371</v>
+        <v>5.863518221167652</v>
       </c>
       <c r="K18">
-        <v>14.38555059645225</v>
+        <v>19.11123219659427</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.22549487411841</v>
+        <v>15.51678080778104</v>
       </c>
       <c r="N18">
-        <v>20.35235942571053</v>
+        <v>12.70469589976501</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.058152248210337</v>
+        <v>8.280074200591251</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.838963903480558</v>
+        <v>5.331411852122208</v>
       </c>
       <c r="E19">
-        <v>12.83359117355086</v>
+        <v>8.500507673976488</v>
       </c>
       <c r="F19">
-        <v>38.65432199815189</v>
+        <v>31.12871147960967</v>
       </c>
       <c r="G19">
-        <v>44.92283009188656</v>
+        <v>40.71374537489208</v>
       </c>
       <c r="H19">
-        <v>18.0327919316254</v>
+        <v>12.24991965989496</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.04650306544526</v>
+        <v>5.863992317857188</v>
       </c>
       <c r="K19">
-        <v>14.36157670095502</v>
+        <v>19.02742087216799</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.21606017014466</v>
+        <v>15.44834408794229</v>
       </c>
       <c r="N19">
-        <v>20.35782510110818</v>
+        <v>12.72569705359173</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.090179789569319</v>
+        <v>8.420313127252987</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.844049043729255</v>
+        <v>5.38677664387123</v>
       </c>
       <c r="E20">
-        <v>12.83315091993443</v>
+        <v>8.557674779068989</v>
       </c>
       <c r="F20">
-        <v>38.67631686101382</v>
+        <v>31.45352836425761</v>
       </c>
       <c r="G20">
-        <v>44.98419316031775</v>
+        <v>41.23435012135367</v>
       </c>
       <c r="H20">
-        <v>18.0251293368293</v>
+        <v>12.30820632295295</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.03976331263489</v>
+        <v>5.862056641634748</v>
       </c>
       <c r="K20">
-        <v>14.46933305486868</v>
+        <v>19.40225890073499</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.25868757552544</v>
+        <v>15.75443084916863</v>
       </c>
       <c r="N20">
-        <v>20.33335533811843</v>
+        <v>12.6313144212423</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.198883563817375</v>
+        <v>8.948185002532449</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.862193115580402</v>
+        <v>5.571339999590385</v>
       </c>
       <c r="E21">
-        <v>12.83390359127734</v>
+        <v>8.753335891332558</v>
       </c>
       <c r="F21">
-        <v>38.76120867775757</v>
+        <v>32.5632698772368</v>
       </c>
       <c r="G21">
-        <v>45.20532378644398</v>
+        <v>43.00149823003917</v>
       </c>
       <c r="H21">
-        <v>18.00341609148782</v>
+        <v>12.51683797772231</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.01840961182038</v>
+        <v>5.859105687767112</v>
       </c>
       <c r="K21">
-        <v>14.82877569295754</v>
+        <v>20.62145550588848</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.40479405411343</v>
+        <v>16.75019231379911</v>
       </c>
       <c r="N21">
-        <v>20.25334629059063</v>
+        <v>12.3161877893393</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.270630824049006</v>
+        <v>9.279202034250975</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.874829685723606</v>
+        <v>5.690748462154982</v>
       </c>
       <c r="E22">
-        <v>12.83605381119366</v>
+        <v>8.883835952470019</v>
       </c>
       <c r="F22">
-        <v>38.82484138182688</v>
+        <v>33.30203963159341</v>
       </c>
       <c r="G22">
-        <v>45.36085320466478</v>
+        <v>44.16933577139977</v>
       </c>
       <c r="H22">
-        <v>17.99223433791227</v>
+        <v>12.66305889245814</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.00541470005415</v>
+        <v>5.859938974892938</v>
       </c>
       <c r="K22">
-        <v>15.06134206194289</v>
+        <v>21.38885034229052</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.50231704578313</v>
+        <v>17.37709964319974</v>
       </c>
       <c r="N22">
-        <v>20.20269300335737</v>
+        <v>12.11146197504228</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.232280911021705</v>
+        <v>9.103800511705275</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.868014792377785</v>
+        <v>5.62713669989671</v>
       </c>
       <c r="E23">
-        <v>12.83475481311991</v>
+        <v>8.813948324175934</v>
       </c>
       <c r="F23">
-        <v>38.79013652413808</v>
+        <v>32.90652053309266</v>
       </c>
       <c r="G23">
-        <v>45.27684664252718</v>
+        <v>43.5448818384623</v>
       </c>
       <c r="H23">
-        <v>17.99792668929492</v>
+        <v>12.58409371290512</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.01226247735902</v>
+        <v>5.859233968899116</v>
       </c>
       <c r="K23">
-        <v>14.93745758956079</v>
+        <v>20.98193279054586</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.45008860004906</v>
+        <v>17.04466232935098</v>
       </c>
       <c r="N23">
-        <v>20.2295782498588</v>
+        <v>12.2206325070037</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.088416578962773</v>
+        <v>8.411447058588049</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.843765782724656</v>
+        <v>5.383741387539859</v>
       </c>
       <c r="E24">
-        <v>12.83316668797592</v>
+        <v>8.554521799330765</v>
       </c>
       <c r="F24">
-        <v>38.67506756041122</v>
+        <v>31.43562102401399</v>
       </c>
       <c r="G24">
-        <v>44.98076677915725</v>
+        <v>41.20569171148226</v>
       </c>
       <c r="H24">
-        <v>18.02553497256426</v>
+        <v>12.30495819594706</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.04012856804</v>
+        <v>5.86214985629455</v>
       </c>
       <c r="K24">
-        <v>14.46342431338525</v>
+        <v>19.38182718960567</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.25633554061724</v>
+        <v>15.73774596186213</v>
       </c>
       <c r="N24">
-        <v>20.33469078380329</v>
+        <v>12.63648937364274</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.936988797606957</v>
+        <v>7.752992427770375</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.821018969271554</v>
+        <v>5.116881395044564</v>
       </c>
       <c r="E25">
-        <v>12.83860492807831</v>
+        <v>8.286296213330832</v>
       </c>
       <c r="F25">
-        <v>38.58619003344756</v>
+        <v>29.90864087744537</v>
       </c>
       <c r="G25">
-        <v>44.70952831655131</v>
+        <v>38.74174547045251</v>
       </c>
       <c r="H25">
-        <v>18.06820608415866</v>
+        <v>12.04408871293313</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.07432021246648</v>
+        <v>5.876429378249932</v>
       </c>
       <c r="K25">
-        <v>13.94472136185739</v>
+        <v>17.52608841958813</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.05681509287861</v>
+        <v>14.37849907643489</v>
       </c>
       <c r="N25">
-        <v>20.4551462736904</v>
+        <v>13.09192416520479</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.247021930168454</v>
+        <v>20.46505581444882</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.917819119107406</v>
+        <v>3.719367478719841</v>
       </c>
       <c r="E2">
-        <v>8.09916790016568</v>
+        <v>29.80583683103502</v>
       </c>
       <c r="F2">
-        <v>28.83798999217765</v>
+        <v>15.9820473274699</v>
       </c>
       <c r="G2">
-        <v>36.98435255108708</v>
+        <v>20.40816803098697</v>
       </c>
       <c r="H2">
-        <v>11.88414490691287</v>
+        <v>2.67181819997216</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.422943548386975</v>
       </c>
       <c r="J2">
-        <v>5.895772257101846</v>
+        <v>6.80945868648972</v>
       </c>
       <c r="K2">
-        <v>16.04440103267357</v>
+        <v>21.45903240825828</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.46994212450597</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.43484587512171</v>
+        <v>10.01005282944228</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.26104871429489</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.51836283040303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.890154017077227</v>
+        <v>19.16877224646234</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.782002153134855</v>
+        <v>3.525266797786257</v>
       </c>
       <c r="E3">
-        <v>7.97902255986244</v>
+        <v>28.39805032784067</v>
       </c>
       <c r="F3">
-        <v>28.1473688116802</v>
+        <v>15.15687775082157</v>
       </c>
       <c r="G3">
-        <v>35.83273965650397</v>
+        <v>19.10947794017716</v>
       </c>
       <c r="H3">
-        <v>11.79451031252663</v>
+        <v>2.856019876773756</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.545515309915993</v>
       </c>
       <c r="J3">
-        <v>5.914041331324189</v>
+        <v>6.711822977506754</v>
       </c>
       <c r="K3">
-        <v>14.96664013509524</v>
+        <v>20.93876432656892</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.83304747288681</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.67274493989299</v>
+        <v>9.421217970753627</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.39727626856861</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.09044334011868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.664860055973566</v>
+        <v>18.32465832687813</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.698425954565928</v>
+        <v>3.400494668486627</v>
       </c>
       <c r="E4">
-        <v>7.908611058051586</v>
+        <v>27.5061915845436</v>
       </c>
       <c r="F4">
-        <v>27.74109027420314</v>
+        <v>14.64061896637445</v>
       </c>
       <c r="G4">
-        <v>35.14658100770612</v>
+        <v>18.28520630221111</v>
       </c>
       <c r="H4">
-        <v>11.74828273428281</v>
+        <v>2.972202246137118</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.62319125438604</v>
       </c>
       <c r="J4">
-        <v>5.927695802677537</v>
+        <v>6.656576779417388</v>
       </c>
       <c r="K4">
-        <v>14.26808407725743</v>
+        <v>20.63140624282283</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.43270806589214</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.82176060390367</v>
+        <v>9.042603561460243</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.83995988990087</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.83035534422931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.571626659168019</v>
+        <v>17.96754680376062</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.664364932966841</v>
+        <v>3.34930319326274</v>
       </c>
       <c r="E5">
-        <v>7.880771806207767</v>
+        <v>27.16321552892103</v>
       </c>
       <c r="F5">
-        <v>27.58007127976613</v>
+        <v>14.42238311074795</v>
       </c>
       <c r="G5">
-        <v>34.87246865775885</v>
+        <v>17.93260405274301</v>
       </c>
       <c r="H5">
-        <v>11.73159157696084</v>
+        <v>3.020207303312063</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.657508194069098</v>
       </c>
       <c r="J5">
-        <v>5.933857606058836</v>
+        <v>6.63324567377437</v>
       </c>
       <c r="K5">
-        <v>13.9740949809014</v>
+        <v>20.53144521009285</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.26744164930444</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.88325822459616</v>
+        <v>8.891131889796561</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.6101878334401</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.72034157470163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.556063462339705</v>
+        <v>17.9062680343464</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.658710251877438</v>
+        <v>3.341985164667424</v>
       </c>
       <c r="E6">
-        <v>7.876200947946925</v>
+        <v>27.13895028358854</v>
       </c>
       <c r="F6">
-        <v>27.55361057468506</v>
+        <v>14.37897906223921</v>
       </c>
       <c r="G6">
-        <v>34.82729176630564</v>
+        <v>17.86109393757304</v>
       </c>
       <c r="H6">
-        <v>11.72894765937079</v>
+        <v>3.02806522839073</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.665863319152449</v>
       </c>
       <c r="J6">
-        <v>5.934916418884914</v>
+        <v>6.627005557703897</v>
       </c>
       <c r="K6">
-        <v>13.92471346855241</v>
+        <v>20.54218575968216</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.23987773555559</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.8935174235218</v>
+        <v>8.874340210156783</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.57653545609722</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.69618830725317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.663608259655178</v>
+        <v>18.31654836719516</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.69796654915814</v>
+        <v>3.403205092574513</v>
       </c>
       <c r="E7">
-        <v>7.908232138823197</v>
+        <v>27.59056589891702</v>
       </c>
       <c r="F7">
-        <v>27.73890022968484</v>
+        <v>14.6188363644767</v>
       </c>
       <c r="G7">
-        <v>35.1428616388316</v>
+        <v>18.24700935817457</v>
       </c>
       <c r="H7">
-        <v>11.74804903012321</v>
+        <v>2.972377295289247</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.630527713985754</v>
       </c>
       <c r="J7">
-        <v>5.927776503503313</v>
+        <v>6.649654833230646</v>
       </c>
       <c r="K7">
-        <v>14.26415706523467</v>
+        <v>20.70401811066106</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.43048752700257</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.82258681313092</v>
+        <v>9.063608048290945</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.84996691930615</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.81289409400656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.125326591951964</v>
+        <v>20.0239827881161</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.871052778597862</v>
+        <v>3.657852048416186</v>
       </c>
       <c r="E8">
-        <v>8.057050925597599</v>
+        <v>29.43818473832409</v>
       </c>
       <c r="F8">
-        <v>28.5962243329516</v>
+        <v>15.67657193363644</v>
       </c>
       <c r="G8">
-        <v>36.58307369432657</v>
+        <v>19.92574022952662</v>
       </c>
       <c r="H8">
-        <v>11.85137052604819</v>
+        <v>2.733951241277281</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.473217096754341</v>
       </c>
       <c r="J8">
-        <v>5.901556160551054</v>
+        <v>6.766331631741855</v>
       </c>
       <c r="K8">
-        <v>15.68038634136407</v>
+        <v>21.37427761940084</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.2523830017447</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.51628215235401</v>
+        <v>9.838982820377254</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.98489896694174</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.35039260522873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977097815349916</v>
+        <v>22.99549567035234</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.20725759770705</v>
+        <v>4.106330971689944</v>
       </c>
       <c r="E9">
-        <v>8.375065814616466</v>
+        <v>32.68178013632085</v>
       </c>
       <c r="F9">
-        <v>30.41485717493124</v>
+        <v>17.69326880317025</v>
       </c>
       <c r="G9">
-        <v>39.5633716274105</v>
+        <v>23.15259361938293</v>
       </c>
       <c r="H9">
-        <v>12.12680492284009</v>
+        <v>2.291246147282736</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.172620893788871</v>
       </c>
       <c r="J9">
-        <v>5.870199697993655</v>
+        <v>7.044028321794461</v>
       </c>
       <c r="K9">
-        <v>18.16887421386743</v>
+        <v>22.64752969029045</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.78294740098595</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.93743875365433</v>
+        <v>11.18468387326156</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.97206804485263</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.44532498099227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.604114625609666</v>
+        <v>24.95609476582083</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.450190970306901</v>
+        <v>4.424897658843334</v>
       </c>
       <c r="E10">
-        <v>8.624038917450221</v>
+        <v>35.38010260533802</v>
       </c>
       <c r="F10">
-        <v>31.83025167216546</v>
+        <v>19.05765123956623</v>
       </c>
       <c r="G10">
-        <v>41.83614453336439</v>
+        <v>25.25424282131936</v>
       </c>
       <c r="H10">
-        <v>12.37744304358093</v>
+        <v>2.002880020284009</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.967703327128683</v>
       </c>
       <c r="J10">
-        <v>5.860445339418574</v>
+        <v>7.235448185875562</v>
       </c>
       <c r="K10">
-        <v>19.82616098594574</v>
+        <v>23.94819891678756</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.10061443279785</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.52315945200957</v>
+        <v>12.02301925927948</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.26055659964564</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.17188734469318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.914797698221582</v>
+        <v>25.88496944243299</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.559448801710644</v>
+        <v>4.707213320246171</v>
       </c>
       <c r="E11">
-        <v>8.740503431006568</v>
+        <v>40.48862949058066</v>
       </c>
       <c r="F11">
-        <v>32.49057024084814</v>
+        <v>19.0701861772067</v>
       </c>
       <c r="G11">
-        <v>42.8862290957286</v>
+        <v>25.0064743930031</v>
       </c>
       <c r="H11">
-        <v>12.50275068151019</v>
+        <v>2.886996996156243</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.892554832981932</v>
       </c>
       <c r="J11">
-        <v>5.859138352798772</v>
+        <v>7.034801957811833</v>
       </c>
       <c r="K11">
-        <v>20.54417972322173</v>
+        <v>27.21318349310627</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.68706987518655</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.33653060425653</v>
+        <v>11.78630241801932</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.48067700196571</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.99935049478445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.030045980934295</v>
+        <v>26.2750731131673</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.600615633960428</v>
+        <v>4.878301151280852</v>
       </c>
       <c r="E12">
-        <v>8.78505678192073</v>
+        <v>44.25232851840773</v>
       </c>
       <c r="F12">
-        <v>32.74293395100607</v>
+        <v>18.78024743348631</v>
       </c>
       <c r="G12">
-        <v>43.28608979981549</v>
+        <v>24.41036697639462</v>
       </c>
       <c r="H12">
-        <v>12.55188974003555</v>
+        <v>4.211505409200245</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.852472314537517</v>
       </c>
       <c r="J12">
-        <v>5.859115365502001</v>
+        <v>6.82595262307462</v>
       </c>
       <c r="K12">
-        <v>20.8110210698431</v>
+        <v>29.70926720657143</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.90504320187354</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.2660732124535</v>
+        <v>11.38572866586468</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.37942261732871</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.72107032566681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.005331468626695</v>
+        <v>26.28362731167577</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.591759192003231</v>
+        <v>4.983094729184973</v>
       </c>
       <c r="E13">
-        <v>8.775441513647882</v>
+        <v>47.40556703592521</v>
       </c>
       <c r="F13">
-        <v>32.68848048942793</v>
+        <v>18.19827909099895</v>
       </c>
       <c r="G13">
-        <v>43.19987530793394</v>
+        <v>23.4341979377122</v>
       </c>
       <c r="H13">
-        <v>12.54123067238225</v>
+        <v>5.607554732108782</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.848740181530734</v>
       </c>
       <c r="J13">
-        <v>5.859098965378165</v>
+        <v>6.582480199628433</v>
       </c>
       <c r="K13">
-        <v>20.75377517069505</v>
+        <v>31.88311115382577</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.85827986062122</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.28123871890161</v>
+        <v>10.85117093798499</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.03778451072105</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.24199964787923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.924327176145761</v>
+        <v>26.11628202230558</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.562839901944266</v>
+        <v>5.028776322333303</v>
       </c>
       <c r="E14">
-        <v>8.744159879308382</v>
+        <v>49.40576367965694</v>
       </c>
       <c r="F14">
-        <v>32.51128615824196</v>
+        <v>17.64371001202299</v>
       </c>
       <c r="G14">
-        <v>42.91908191695756</v>
+        <v>22.55335418446126</v>
       </c>
       <c r="H14">
-        <v>12.50675918645965</v>
+        <v>6.604132360314329</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.86432499145707</v>
       </c>
       <c r="J14">
-        <v>5.859126873690951</v>
+        <v>6.392375351251559</v>
       </c>
       <c r="K14">
-        <v>20.56623364235044</v>
+        <v>33.30488720784714</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.70508441873521</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.33073001352754</v>
+        <v>10.41546682847966</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.68745658248249</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.8036499074303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.87439800484394</v>
+        <v>25.9921763007432</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.545098363710306</v>
+        <v>5.026848686709777</v>
       </c>
       <c r="E15">
-        <v>8.725057408994779</v>
+        <v>49.79046209427925</v>
       </c>
       <c r="F15">
-        <v>32.40304994051434</v>
+        <v>17.43664681155548</v>
       </c>
       <c r="G15">
-        <v>42.74737404225642</v>
+        <v>22.24051821170297</v>
       </c>
       <c r="H15">
-        <v>12.48586611687521</v>
+        <v>6.836817353993012</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.88011132175005</v>
       </c>
       <c r="J15">
-        <v>5.859206098230684</v>
+        <v>6.336936748249116</v>
       </c>
       <c r="K15">
-        <v>20.45070372346483</v>
+        <v>33.60430883898546</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.61071590864935</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.36107135890363</v>
+        <v>10.28586558417843</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.55427751333334</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.64524799406408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.583473117281368</v>
+        <v>25.1931596816903</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.443023130744435</v>
+        <v>4.884926120247051</v>
       </c>
       <c r="E16">
-        <v>8.616491278069887</v>
+        <v>48.32213874550829</v>
       </c>
       <c r="F16">
-        <v>31.78742453975845</v>
+        <v>16.81583053134941</v>
       </c>
       <c r="G16">
-        <v>41.76783416234819</v>
+        <v>21.41492158425792</v>
       </c>
       <c r="H16">
-        <v>12.36948657332305</v>
+        <v>6.643967803490732</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.975991641286245</v>
       </c>
       <c r="J16">
-        <v>5.860595578736132</v>
+        <v>6.284298935132342</v>
       </c>
       <c r="K16">
-        <v>19.77852330792297</v>
+        <v>32.73665115961053</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06170897295614</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.53538885770913</v>
+        <v>10.0200895095107</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.078276093135</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.20390658208277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.400690958772918</v>
+        <v>24.65934373547926</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.380062048079873</v>
+        <v>4.748100606949734</v>
       </c>
       <c r="E17">
-        <v>8.550702669149926</v>
+        <v>46.0480023241945</v>
       </c>
       <c r="F17">
-        <v>31.41392913665285</v>
+        <v>16.64851657609574</v>
       </c>
       <c r="G17">
-        <v>41.17097005862876</v>
+        <v>21.27748247313924</v>
       </c>
       <c r="H17">
-        <v>12.3010289530419</v>
+        <v>5.938092844745438</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.041548616446572</v>
       </c>
       <c r="J17">
-        <v>5.862264842968866</v>
+        <v>6.349904161594333</v>
       </c>
       <c r="K17">
-        <v>19.35704190605216</v>
+        <v>31.27522719193277</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.71750597773192</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.64276230625496</v>
+        <v>10.05624286460707</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.90217604381</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.11644918862075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.309853766067663</v>
+        <v>24.30682168467872</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.343731813423495</v>
+        <v>4.599754132011545</v>
       </c>
       <c r="E18">
-        <v>8.513165027916674</v>
+        <v>42.79542116402013</v>
       </c>
       <c r="F18">
-        <v>31.20065451653217</v>
+        <v>16.87523414529127</v>
       </c>
       <c r="G18">
-        <v>40.82919722939018</v>
+        <v>21.75552359908739</v>
       </c>
       <c r="H18">
-        <v>12.26271289238339</v>
+        <v>4.747525254837348</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.077624299813581</v>
       </c>
       <c r="J18">
-        <v>5.863518221167652</v>
+        <v>6.525239453904687</v>
       </c>
       <c r="K18">
-        <v>19.11123219659427</v>
+        <v>29.10693089717637</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.51678080778104</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.70469589976501</v>
+        <v>10.34779940507066</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.95900632384215</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.45515784454137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.280074200591251</v>
+        <v>24.12595896699101</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.331411852122208</v>
+        <v>4.461411899804359</v>
       </c>
       <c r="E19">
-        <v>8.500507673976488</v>
+        <v>39.25262567266978</v>
       </c>
       <c r="F19">
-        <v>31.12871147960967</v>
+        <v>17.41385359715509</v>
       </c>
       <c r="G19">
-        <v>40.71374537489208</v>
+        <v>22.64353738320429</v>
       </c>
       <c r="H19">
-        <v>12.24991965989496</v>
+        <v>3.378894063043473</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.095897970747099</v>
       </c>
       <c r="J19">
-        <v>5.863992317857188</v>
+        <v>6.759341526445281</v>
       </c>
       <c r="K19">
-        <v>19.02742087216799</v>
+        <v>26.76664524623809</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.44834408794229</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.72569705359173</v>
+        <v>10.85672648034938</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.21290270084238</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.96255851814633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.420313127252987</v>
+        <v>24.44926207288741</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.38677664387123</v>
+        <v>4.352717986019656</v>
       </c>
       <c r="E20">
-        <v>8.557674779068989</v>
+        <v>34.93818267327321</v>
       </c>
       <c r="F20">
-        <v>31.45352836425761</v>
+        <v>18.62736234658686</v>
       </c>
       <c r="G20">
-        <v>41.23435012135367</v>
+        <v>24.6325230917805</v>
       </c>
       <c r="H20">
-        <v>12.30820632295295</v>
+        <v>2.074565566541365</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.04225526769709</v>
       </c>
       <c r="J20">
-        <v>5.862056641634748</v>
+        <v>7.163788895109485</v>
       </c>
       <c r="K20">
-        <v>19.40225890073499</v>
+        <v>23.83827056563115</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.75443084916863</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.6313144212423</v>
+        <v>11.86146064095547</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.96102287581238</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.93727389217469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.948185002532449</v>
+        <v>25.86637667943731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.571339999590385</v>
+        <v>4.560478935953631</v>
       </c>
       <c r="E21">
-        <v>8.753335891332558</v>
+        <v>36.22044473819603</v>
       </c>
       <c r="F21">
-        <v>32.5632698772368</v>
+        <v>19.90657934597567</v>
       </c>
       <c r="G21">
-        <v>43.00149823003917</v>
+        <v>26.4207264781178</v>
       </c>
       <c r="H21">
-        <v>12.51683797772231</v>
+        <v>1.822568371599452</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.881998182791656</v>
       </c>
       <c r="J21">
-        <v>5.859105687767112</v>
+        <v>7.373119746895925</v>
       </c>
       <c r="K21">
-        <v>20.62145550588848</v>
+        <v>24.35704892493873</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.75019231379911</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.3161877893393</v>
+        <v>12.57679041473049</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.96080102990337</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.70053344274406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.279202034250975</v>
+        <v>26.75951290115158</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.690748462154982</v>
+        <v>4.696019288939521</v>
       </c>
       <c r="E22">
-        <v>8.883835952470019</v>
+        <v>37.16266109984632</v>
       </c>
       <c r="F22">
-        <v>33.30203963159341</v>
+        <v>20.70659434885235</v>
       </c>
       <c r="G22">
-        <v>44.16933577139977</v>
+        <v>27.51348670987517</v>
       </c>
       <c r="H22">
-        <v>12.66305889245814</v>
+        <v>1.67211109885604</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.771064734666615</v>
       </c>
       <c r="J22">
-        <v>5.859938974892938</v>
+        <v>7.504348793881283</v>
       </c>
       <c r="K22">
-        <v>21.38885034229052</v>
+        <v>24.76045780482291</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.37709964319974</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.11146197504228</v>
+        <v>12.96886231370784</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.55609089413128</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.27577881604164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.103800511705275</v>
+        <v>26.28952864366217</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.62713669989671</v>
+        <v>4.621071875551235</v>
       </c>
       <c r="E23">
-        <v>8.813948324175934</v>
+        <v>36.57920388295312</v>
       </c>
       <c r="F23">
-        <v>32.90652053309266</v>
+        <v>20.29680686443307</v>
       </c>
       <c r="G23">
-        <v>43.5448818384623</v>
+        <v>26.95889491293338</v>
       </c>
       <c r="H23">
-        <v>12.58409371290512</v>
+        <v>1.753218172757463</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.821811362702813</v>
       </c>
       <c r="J23">
-        <v>5.859233968899116</v>
+        <v>7.440551763542409</v>
       </c>
       <c r="K23">
-        <v>20.98193279054586</v>
+        <v>24.4633295349188</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.04466232935098</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.2206325070037</v>
+        <v>12.74085779263525</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.22943070768494</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.98309349417501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.411447058588049</v>
+        <v>24.42153882445062</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.383741387539859</v>
+        <v>4.331205445721023</v>
       </c>
       <c r="E24">
-        <v>8.554521799330765</v>
+        <v>34.43325762533188</v>
       </c>
       <c r="F24">
-        <v>31.43562102401399</v>
+        <v>18.70024995837509</v>
       </c>
       <c r="G24">
-        <v>41.20569171148226</v>
+        <v>24.75498817005383</v>
       </c>
       <c r="H24">
-        <v>12.30495819594706</v>
+        <v>2.063078705939632</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.03074554610216</v>
       </c>
       <c r="J24">
-        <v>5.86214985629455</v>
+        <v>7.197133661896304</v>
       </c>
       <c r="K24">
-        <v>19.38182718960567</v>
+        <v>23.47526763520528</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.73774596186213</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63648937364274</v>
+        <v>11.8758540732255</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.95854139884057</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.00767161226878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.752992427770375</v>
+        <v>22.22734071551965</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.116881395044564</v>
+        <v>3.995303226311067</v>
       </c>
       <c r="E25">
-        <v>8.286296213330832</v>
+        <v>31.97319599255126</v>
       </c>
       <c r="F25">
-        <v>29.90864087744537</v>
+        <v>17.1301161337639</v>
       </c>
       <c r="G25">
-        <v>38.74174547045251</v>
+        <v>22.24217614863885</v>
       </c>
       <c r="H25">
-        <v>12.04408871293313</v>
+        <v>2.407319094252123</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.263812724367014</v>
       </c>
       <c r="J25">
-        <v>5.876429378249932</v>
+        <v>6.95380618932507</v>
       </c>
       <c r="K25">
-        <v>17.52608841958813</v>
+        <v>22.42459908538105</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.37849907643489</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.09192416520479</v>
+        <v>10.87094756710989</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.47800293810205</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.12337274440779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.46505581444882</v>
+        <v>20.54075653886929</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.719367478719841</v>
+        <v>3.611178171227643</v>
       </c>
       <c r="E2">
-        <v>29.80583683103502</v>
+        <v>25.78838728609601</v>
       </c>
       <c r="F2">
-        <v>15.9820473274699</v>
+        <v>16.79397249794066</v>
       </c>
       <c r="G2">
-        <v>20.40816803098697</v>
+        <v>21.76372463052991</v>
       </c>
       <c r="H2">
-        <v>2.67181819997216</v>
+        <v>2.500593810848585</v>
       </c>
       <c r="I2">
-        <v>4.422943548386975</v>
+        <v>4.096038190489786</v>
       </c>
       <c r="J2">
-        <v>6.80945868648972</v>
+        <v>7.982180849830856</v>
       </c>
       <c r="K2">
-        <v>21.45903240825828</v>
+        <v>18.02419643689853</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.06109674225187</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.59205776180608</v>
       </c>
       <c r="N2">
-        <v>10.01005282944228</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.26104871429489</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.164969127770124</v>
       </c>
       <c r="Q2">
-        <v>11.51836283040303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.75931915923821</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.25872070808538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.16877224646234</v>
+        <v>19.22486763751165</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.525266797786257</v>
+        <v>3.423235143295555</v>
       </c>
       <c r="E3">
-        <v>28.39805032784067</v>
+        <v>24.57198156396953</v>
       </c>
       <c r="F3">
-        <v>15.15687775082157</v>
+        <v>15.94592723354169</v>
       </c>
       <c r="G3">
-        <v>19.10947794017716</v>
+        <v>20.26923243049345</v>
       </c>
       <c r="H3">
-        <v>2.856019876773756</v>
+        <v>2.66746015014332</v>
       </c>
       <c r="I3">
-        <v>4.545515309915993</v>
+        <v>4.198836765983056</v>
       </c>
       <c r="J3">
-        <v>6.711822977506754</v>
+        <v>7.864425584431821</v>
       </c>
       <c r="K3">
-        <v>20.93876432656892</v>
+        <v>17.73845813523333</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.61965235747142</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.59591616334063</v>
       </c>
       <c r="N3">
-        <v>9.421217970753627</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.39727626856861</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.634454208661857</v>
       </c>
       <c r="Q3">
-        <v>11.09044334011868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.9139901847558</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.80057986521618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32465832687813</v>
+        <v>18.36690174544402</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.400494668486627</v>
+        <v>3.302497728141906</v>
       </c>
       <c r="E4">
-        <v>27.5061915845436</v>
+        <v>23.80466494791745</v>
       </c>
       <c r="F4">
-        <v>14.64061896637445</v>
+        <v>15.41302549869558</v>
       </c>
       <c r="G4">
-        <v>18.28520630221111</v>
+        <v>19.34742896288859</v>
       </c>
       <c r="H4">
-        <v>2.972202246137118</v>
+        <v>2.772832005811719</v>
       </c>
       <c r="I4">
-        <v>4.62319125438604</v>
+        <v>4.26429545850828</v>
       </c>
       <c r="J4">
-        <v>6.656576779417388</v>
+        <v>7.793580428019197</v>
       </c>
       <c r="K4">
-        <v>20.63140624282283</v>
+        <v>17.57919478737143</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.37400426965966</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.60779148023016</v>
       </c>
       <c r="N4">
-        <v>9.042603561460243</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.83995988990087</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.294235604470583</v>
       </c>
       <c r="Q4">
-        <v>10.83035534422931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.36831739236208</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.51900590860144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.96754680376062</v>
+        <v>18.00387446887046</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.34930319326274</v>
+        <v>3.252781679443342</v>
       </c>
       <c r="E5">
-        <v>27.16321552892103</v>
+        <v>23.50710501050125</v>
       </c>
       <c r="F5">
-        <v>14.42238311074795</v>
+        <v>15.18849727402733</v>
       </c>
       <c r="G5">
-        <v>17.93260405274301</v>
+        <v>18.96387889220937</v>
       </c>
       <c r="H5">
-        <v>3.020207303312063</v>
+        <v>2.816521602257404</v>
       </c>
       <c r="I5">
-        <v>4.657508194069098</v>
+        <v>4.294114815341466</v>
       </c>
       <c r="J5">
-        <v>6.63324567377437</v>
+        <v>7.763618521817288</v>
       </c>
       <c r="K5">
-        <v>20.53144521009285</v>
+        <v>17.53201101853838</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.28888371175232</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.62713897738893</v>
       </c>
       <c r="N5">
-        <v>8.891131889796561</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>13.6101878334401</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.157850065340563</v>
       </c>
       <c r="Q5">
-        <v>10.72034157470163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.14259503566409</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.40048624803908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.9062680343464</v>
+        <v>17.94184297039644</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.341985164667424</v>
+        <v>3.245425309935456</v>
       </c>
       <c r="E6">
-        <v>27.13895028358854</v>
+        <v>23.48173242137847</v>
       </c>
       <c r="F6">
-        <v>14.37897906223921</v>
+        <v>15.14543754095466</v>
       </c>
       <c r="G6">
-        <v>17.86109393757304</v>
+        <v>18.88965210440961</v>
       </c>
       <c r="H6">
-        <v>3.02806522839073</v>
+        <v>2.823824917582868</v>
       </c>
       <c r="I6">
-        <v>4.665863319152449</v>
+        <v>4.302374113310078</v>
       </c>
       <c r="J6">
-        <v>6.627005557703897</v>
+        <v>7.756864827198679</v>
       </c>
       <c r="K6">
-        <v>20.54218575968216</v>
+        <v>17.54114676715554</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.28517174009292</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.64545067562591</v>
       </c>
       <c r="N6">
-        <v>8.874340210156783</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>13.57653545609722</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.142084561181344</v>
       </c>
       <c r="Q6">
-        <v>10.69618830725317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.10866266607876</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.3760850271253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31654836719516</v>
+        <v>18.35977973791673</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.403205092574513</v>
+        <v>3.308524857646136</v>
       </c>
       <c r="E7">
-        <v>27.59056589891702</v>
+        <v>23.85644446630702</v>
       </c>
       <c r="F7">
-        <v>14.6188363644767</v>
+        <v>15.37523847825329</v>
       </c>
       <c r="G7">
-        <v>18.24700935817457</v>
+        <v>19.42286559249435</v>
       </c>
       <c r="H7">
-        <v>2.972377295289247</v>
+        <v>2.773736800501867</v>
       </c>
       <c r="I7">
-        <v>4.630527713985754</v>
+        <v>4.273409830486475</v>
       </c>
       <c r="J7">
-        <v>6.649654833230646</v>
+        <v>7.734482616432537</v>
       </c>
       <c r="K7">
-        <v>20.70401811066106</v>
+        <v>17.62809083633952</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.40352264322203</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.65158530646276</v>
       </c>
       <c r="N7">
-        <v>9.063608048290945</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.84996691930615</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.309040472444847</v>
       </c>
       <c r="Q7">
-        <v>10.81289409400656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.37458240164201</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.48849558601295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.0239827881161</v>
+        <v>20.09526093697859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.657852048416186</v>
+        <v>3.563541803330111</v>
       </c>
       <c r="E8">
-        <v>29.43818473832409</v>
+        <v>25.42577360880687</v>
       </c>
       <c r="F8">
-        <v>15.67657193363644</v>
+        <v>16.42406826874859</v>
       </c>
       <c r="G8">
-        <v>19.92574022952662</v>
+        <v>21.55098736799457</v>
       </c>
       <c r="H8">
-        <v>2.733951241277281</v>
+        <v>2.558443724523435</v>
       </c>
       <c r="I8">
-        <v>4.473217096754341</v>
+        <v>4.142072557247435</v>
       </c>
       <c r="J8">
-        <v>6.766331631741855</v>
+        <v>7.760115197464451</v>
       </c>
       <c r="K8">
-        <v>21.37427761940084</v>
+        <v>17.99691758757822</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.95457540271196</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.65351954249792</v>
       </c>
       <c r="N8">
-        <v>9.838982820377254</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.98489896694174</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9.001214371239108</v>
       </c>
       <c r="Q8">
-        <v>11.35039260522873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.48247597432569</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.03348694014821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.99549567035234</v>
+        <v>23.10580588308927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.106330971689944</v>
+        <v>4.000897282724303</v>
       </c>
       <c r="E9">
-        <v>32.68178013632085</v>
+        <v>28.25047057584814</v>
       </c>
       <c r="F9">
-        <v>17.69326880317025</v>
+        <v>18.47079670784338</v>
       </c>
       <c r="G9">
-        <v>23.15259361938293</v>
+        <v>25.11454184327451</v>
       </c>
       <c r="H9">
-        <v>2.291246147282736</v>
+        <v>2.157869742074457</v>
       </c>
       <c r="I9">
-        <v>4.172620893788871</v>
+        <v>3.888658536081448</v>
       </c>
       <c r="J9">
-        <v>7.044028321794461</v>
+        <v>8.025307270378594</v>
       </c>
       <c r="K9">
-        <v>22.64752969029045</v>
+        <v>18.74674871882815</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.14420781194235</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.65528915372203</v>
       </c>
       <c r="N9">
-        <v>11.18468387326156</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.97206804485263</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10.21827685296642</v>
       </c>
       <c r="Q9">
-        <v>12.44532498099227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.42753508984008</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.17485984895633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.95609476582083</v>
+        <v>25.09246743928684</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.424897658843334</v>
+        <v>4.327975832142974</v>
       </c>
       <c r="E10">
-        <v>35.38010260533802</v>
+        <v>30.51858140365349</v>
       </c>
       <c r="F10">
-        <v>19.05765123956623</v>
+        <v>19.73487863137748</v>
       </c>
       <c r="G10">
-        <v>25.25424282131936</v>
+        <v>27.86775322205801</v>
       </c>
       <c r="H10">
-        <v>2.002880020284009</v>
+        <v>1.904190669422073</v>
       </c>
       <c r="I10">
-        <v>3.967703327128683</v>
+        <v>3.720664238665595</v>
       </c>
       <c r="J10">
-        <v>7.235448185875562</v>
+        <v>7.913119965221319</v>
       </c>
       <c r="K10">
-        <v>23.94819891678756</v>
+        <v>19.59584463614754</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.266257943301</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.88396450040636</v>
       </c>
       <c r="N10">
-        <v>12.02301925927948</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.26055659964564</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.93867756827085</v>
       </c>
       <c r="Q10">
-        <v>13.17188734469318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.6686279041952</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.85850426152891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.88496944243299</v>
+        <v>26.05971272936515</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.707213320246171</v>
+        <v>4.618665047238471</v>
       </c>
       <c r="E11">
-        <v>40.48862949058066</v>
+        <v>34.50126176393651</v>
       </c>
       <c r="F11">
-        <v>19.0701861772067</v>
+        <v>19.59776591991382</v>
       </c>
       <c r="G11">
-        <v>25.0064743930031</v>
+        <v>28.89349128100294</v>
       </c>
       <c r="H11">
-        <v>2.886996996156243</v>
+        <v>2.845509725022382</v>
       </c>
       <c r="I11">
-        <v>3.892554832981932</v>
+        <v>3.674821160157563</v>
       </c>
       <c r="J11">
-        <v>7.034801957811833</v>
+        <v>7.175687849769578</v>
       </c>
       <c r="K11">
-        <v>27.21318349310627</v>
+        <v>21.78632572709144</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.14115496587288</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.36363099856464</v>
       </c>
       <c r="N11">
-        <v>11.78630241801932</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.48067700196571</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10.43691293362752</v>
       </c>
       <c r="Q11">
-        <v>12.99935049478445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.76279797050687</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.51536252271011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.2750731131673</v>
+        <v>26.47588619277809</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.878301151280852</v>
+        <v>4.784136901493329</v>
       </c>
       <c r="E12">
-        <v>44.25232851840773</v>
+        <v>37.4417160829282</v>
       </c>
       <c r="F12">
-        <v>18.78024743348631</v>
+        <v>19.30995142678021</v>
       </c>
       <c r="G12">
-        <v>24.41036697639462</v>
+        <v>28.95043850823006</v>
       </c>
       <c r="H12">
-        <v>4.211505409200245</v>
+        <v>4.194485420063074</v>
       </c>
       <c r="I12">
-        <v>3.852472314537517</v>
+        <v>3.65016699778138</v>
       </c>
       <c r="J12">
-        <v>6.82595262307462</v>
+        <v>6.761487016202633</v>
       </c>
       <c r="K12">
-        <v>29.70926720657143</v>
+        <v>23.47245015911626</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>18.49881619677418</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.57187234722259</v>
       </c>
       <c r="N12">
-        <v>11.38572866586468</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.37942261732871</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.837164195720053</v>
       </c>
       <c r="Q12">
-        <v>12.72107032566681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.57096245220463</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.13836745727664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.28362731167577</v>
+        <v>26.50409292156502</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.983094729184973</v>
+        <v>4.861580637371238</v>
       </c>
       <c r="E13">
-        <v>47.40556703592521</v>
+        <v>39.9252947906518</v>
       </c>
       <c r="F13">
-        <v>18.19827909099895</v>
+        <v>18.83495473664039</v>
       </c>
       <c r="G13">
-        <v>23.4341979377122</v>
+        <v>28.0312938771299</v>
       </c>
       <c r="H13">
-        <v>5.607554732108782</v>
+        <v>5.60034561768826</v>
       </c>
       <c r="I13">
-        <v>3.848740181530734</v>
+        <v>3.654501557288285</v>
       </c>
       <c r="J13">
-        <v>6.582480199628433</v>
+        <v>6.658325358578344</v>
       </c>
       <c r="K13">
-        <v>31.88311115382577</v>
+        <v>24.92033511435158</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>19.57243667600197</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.68761640852635</v>
       </c>
       <c r="N13">
-        <v>10.85117093798499</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.03778451072105</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>9.149953153971179</v>
       </c>
       <c r="Q13">
-        <v>12.24199964787923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.15716694195278</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.73086216810566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.11628202230558</v>
+        <v>26.34820149524915</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.028776322333303</v>
+        <v>4.877732776227115</v>
       </c>
       <c r="E14">
-        <v>49.40576367965694</v>
+        <v>41.50983594972142</v>
       </c>
       <c r="F14">
-        <v>17.64371001202299</v>
+        <v>18.40401862664161</v>
       </c>
       <c r="G14">
-        <v>22.55335418446126</v>
+        <v>26.93355173664323</v>
       </c>
       <c r="H14">
-        <v>6.604132360314329</v>
+        <v>6.600381103796658</v>
       </c>
       <c r="I14">
-        <v>3.86432499145707</v>
+        <v>3.673115066119872</v>
       </c>
       <c r="J14">
-        <v>6.392375351251559</v>
+        <v>6.715378758996331</v>
       </c>
       <c r="K14">
-        <v>33.30488720784714</v>
+        <v>25.85367059852191</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>20.21507265901564</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.44934878428526</v>
       </c>
       <c r="N14">
-        <v>10.41546682847966</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.68745658248249</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.642223400294261</v>
       </c>
       <c r="Q14">
-        <v>11.8036499074303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.76294968234266</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.39158125879094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.9921763007432</v>
+        <v>26.22581501780696</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.026848686709777</v>
+        <v>4.864184808388124</v>
       </c>
       <c r="E15">
-        <v>49.79046209427925</v>
+        <v>41.81690949700055</v>
       </c>
       <c r="F15">
-        <v>17.43664681155548</v>
+        <v>18.24892031253335</v>
       </c>
       <c r="G15">
-        <v>22.24051821170297</v>
+        <v>26.45827420943251</v>
       </c>
       <c r="H15">
-        <v>6.836817353993012</v>
+        <v>6.833226538048836</v>
       </c>
       <c r="I15">
-        <v>3.88011132175005</v>
+        <v>3.688645026465663</v>
       </c>
       <c r="J15">
-        <v>6.336936748249116</v>
+        <v>6.784403577883462</v>
       </c>
       <c r="K15">
-        <v>33.60430883898546</v>
+        <v>26.04307579902715</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>20.32018658397312</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.62608794525164</v>
       </c>
       <c r="N15">
-        <v>10.28586558417843</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.55427751333334</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.500350263185558</v>
       </c>
       <c r="Q15">
-        <v>11.64524799406408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.62187755606508</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.29174778775982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.1931596816903</v>
+        <v>25.41343533728854</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.884926120247051</v>
+        <v>4.689940278942127</v>
       </c>
       <c r="E16">
-        <v>48.32213874550829</v>
+        <v>40.66270847744247</v>
       </c>
       <c r="F16">
-        <v>16.81583053134941</v>
+        <v>17.81135739843825</v>
       </c>
       <c r="G16">
-        <v>21.41492158425792</v>
+        <v>24.69077416016744</v>
       </c>
       <c r="H16">
-        <v>6.643967803490732</v>
+        <v>6.633457620306073</v>
       </c>
       <c r="I16">
-        <v>3.975991641286245</v>
+        <v>3.766674541792201</v>
       </c>
       <c r="J16">
-        <v>6.284298935132342</v>
+        <v>7.261205338773562</v>
       </c>
       <c r="K16">
-        <v>32.73665115961053</v>
+        <v>25.38471677219852</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>19.60630583222446</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.31799630209152</v>
       </c>
       <c r="N16">
-        <v>10.0200895095107</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.078276093135</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.29644484488885</v>
       </c>
       <c r="Q16">
-        <v>11.20390658208277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.18151104639614</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.16388526040002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.65934373547926</v>
+        <v>24.86267247034155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.748100606949734</v>
+        <v>4.550405911011265</v>
       </c>
       <c r="E17">
-        <v>46.0480023241945</v>
+        <v>38.85500815983571</v>
       </c>
       <c r="F17">
-        <v>16.64851657609574</v>
+        <v>17.75525164537425</v>
       </c>
       <c r="G17">
-        <v>21.27748247313924</v>
+        <v>24.0521884743247</v>
       </c>
       <c r="H17">
-        <v>5.938092844745438</v>
+        <v>5.918479267063427</v>
       </c>
       <c r="I17">
-        <v>4.041548616446572</v>
+        <v>3.817180563066681</v>
       </c>
       <c r="J17">
-        <v>6.349904161594333</v>
+        <v>7.531150754609397</v>
       </c>
       <c r="K17">
-        <v>31.27522719193277</v>
+        <v>24.37208290700646</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>18.7086683249086</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.66717289897558</v>
       </c>
       <c r="N17">
-        <v>10.05624286460707</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.90217604381</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.423428607442489</v>
       </c>
       <c r="Q17">
-        <v>11.11644918862075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.0562583959209</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.22898510525879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.30682168467872</v>
+        <v>24.48767686524921</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.599754132011545</v>
+        <v>4.417568429808469</v>
       </c>
       <c r="E18">
-        <v>42.79542116402013</v>
+        <v>36.28271851200734</v>
       </c>
       <c r="F18">
-        <v>16.87523414529127</v>
+        <v>17.99015341097929</v>
       </c>
       <c r="G18">
-        <v>21.75552359908739</v>
+        <v>24.18838738852281</v>
       </c>
       <c r="H18">
-        <v>4.747525254837348</v>
+        <v>4.712332294685226</v>
       </c>
       <c r="I18">
-        <v>4.077624299813581</v>
+        <v>3.837658065860224</v>
       </c>
       <c r="J18">
-        <v>6.525239453904687</v>
+        <v>7.752301340836612</v>
       </c>
       <c r="K18">
-        <v>29.10693089717637</v>
+        <v>22.91529049840808</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>17.53632561298441</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.62419096247978</v>
       </c>
       <c r="N18">
-        <v>10.34779940507066</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.95900632384215</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.887464829849909</v>
       </c>
       <c r="Q18">
-        <v>11.45515784454137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.18653581380572</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.50367849357181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.12595896699101</v>
+        <v>24.28317136523093</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.461411899804359</v>
+        <v>4.303177498810664</v>
       </c>
       <c r="E19">
-        <v>39.25262567266978</v>
+        <v>33.49883613620079</v>
       </c>
       <c r="F19">
-        <v>17.41385359715509</v>
+        <v>18.4261432433045</v>
       </c>
       <c r="G19">
-        <v>22.64353738320429</v>
+        <v>24.82920856935451</v>
       </c>
       <c r="H19">
-        <v>3.378894063043473</v>
+        <v>3.317240230058499</v>
       </c>
       <c r="I19">
-        <v>4.095897970747099</v>
+        <v>3.846126222982433</v>
       </c>
       <c r="J19">
-        <v>6.759341526445281</v>
+        <v>7.950117255009875</v>
       </c>
       <c r="K19">
-        <v>26.76664524623809</v>
+        <v>21.38291809382306</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.36156964997794</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.47262882156713</v>
       </c>
       <c r="N19">
-        <v>10.85672648034938</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.21290270084238</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>9.580217667446277</v>
       </c>
       <c r="Q19">
-        <v>11.96255851814633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.52275003987661</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.91093558447195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.44926207288741</v>
+        <v>24.58013709294941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.352717986019656</v>
+        <v>4.23955555934667</v>
       </c>
       <c r="E20">
-        <v>34.93818267327321</v>
+        <v>30.15616467026429</v>
       </c>
       <c r="F20">
-        <v>18.62736234658686</v>
+        <v>19.42515145080867</v>
       </c>
       <c r="G20">
-        <v>24.6325230917805</v>
+        <v>26.81287090571093</v>
       </c>
       <c r="H20">
-        <v>2.074565566541365</v>
+        <v>1.967242560512199</v>
       </c>
       <c r="I20">
-        <v>4.04225526769709</v>
+        <v>3.791113311052836</v>
       </c>
       <c r="J20">
-        <v>7.163788895109485</v>
+        <v>8.104741797888972</v>
       </c>
       <c r="K20">
-        <v>23.83827056563115</v>
+        <v>19.51699589738367</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.07915183273411</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.93506624389438</v>
       </c>
       <c r="N20">
-        <v>11.86146064095547</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.96102287581238</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.80259238100586</v>
       </c>
       <c r="Q20">
-        <v>12.93727389217469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.37810104513805</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.69386319287785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.86637667943731</v>
+        <v>26.01501793739977</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.560478935953631</v>
+        <v>4.520752278275893</v>
       </c>
       <c r="E21">
-        <v>36.22044473819603</v>
+        <v>31.13199206245469</v>
       </c>
       <c r="F21">
-        <v>19.90657934597567</v>
+        <v>20.22212395803456</v>
       </c>
       <c r="G21">
-        <v>26.4207264781178</v>
+        <v>30.47277986835032</v>
       </c>
       <c r="H21">
-        <v>1.822568371599452</v>
+        <v>1.742892314950589</v>
       </c>
       <c r="I21">
-        <v>3.881998182791656</v>
+        <v>3.658606942552373</v>
       </c>
       <c r="J21">
-        <v>7.373119746895925</v>
+        <v>7.164370512454914</v>
       </c>
       <c r="K21">
-        <v>24.35704892493873</v>
+        <v>19.94535168475222</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.77453819522047</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.9388624681809</v>
       </c>
       <c r="N21">
-        <v>12.57679041473049</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.96080102990337</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>11.43279805150823</v>
       </c>
       <c r="Q21">
-        <v>13.70053344274406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.34219215867613</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.06025659157585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.75951290115158</v>
+        <v>26.91955473487067</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.696019288939521</v>
+        <v>4.706101371906432</v>
       </c>
       <c r="E22">
-        <v>37.16266109984632</v>
+        <v>31.84439401745637</v>
       </c>
       <c r="F22">
-        <v>20.70659434885235</v>
+        <v>20.77513449036667</v>
       </c>
       <c r="G22">
-        <v>27.51348670987517</v>
+        <v>32.82770828741257</v>
       </c>
       <c r="H22">
-        <v>1.67211109885604</v>
+        <v>1.611079540149241</v>
       </c>
       <c r="I22">
-        <v>3.771064734666615</v>
+        <v>3.563789130575615</v>
       </c>
       <c r="J22">
-        <v>7.504348793881283</v>
+        <v>6.523107356068021</v>
       </c>
       <c r="K22">
-        <v>24.76045780482291</v>
+        <v>20.2723061363781</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.2616380235268</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.98034677608083</v>
       </c>
       <c r="N22">
-        <v>12.96886231370784</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>19.55609089413128</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.7622525224392</v>
       </c>
       <c r="Q22">
-        <v>14.27577881604164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.91027431727104</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.29799056948862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.28952864366217</v>
+        <v>26.44235077737491</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.621071875551235</v>
+        <v>4.596866250295098</v>
       </c>
       <c r="E23">
-        <v>36.57920388295312</v>
+        <v>31.42314452883246</v>
       </c>
       <c r="F23">
-        <v>20.29680686443307</v>
+        <v>20.53317639611678</v>
       </c>
       <c r="G23">
-        <v>26.95889491293338</v>
+        <v>31.4025086865447</v>
       </c>
       <c r="H23">
-        <v>1.753218172757463</v>
+        <v>1.681044696582009</v>
       </c>
       <c r="I23">
-        <v>3.821811362702813</v>
+        <v>3.603403729772377</v>
       </c>
       <c r="J23">
-        <v>7.440551763542409</v>
+        <v>6.98294938499888</v>
       </c>
       <c r="K23">
-        <v>24.4633295349188</v>
+        <v>20.02906376515938</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.94976949149365</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.905674702674</v>
       </c>
       <c r="N23">
-        <v>12.74085779263525</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>19.22943070768494</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>11.57584508345452</v>
       </c>
       <c r="Q23">
-        <v>13.98309349417501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.60285359585948</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.20249080664341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.42153882445062</v>
+        <v>24.54885943948177</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.331205445721023</v>
+        <v>4.221160485801239</v>
       </c>
       <c r="E24">
-        <v>34.43325762533188</v>
+        <v>29.76442129036353</v>
       </c>
       <c r="F24">
-        <v>18.70024995837509</v>
+        <v>19.48381674946251</v>
       </c>
       <c r="G24">
-        <v>24.75498817005383</v>
+        <v>26.88762646469957</v>
       </c>
       <c r="H24">
-        <v>2.063078705939632</v>
+        <v>1.952685940702189</v>
       </c>
       <c r="I24">
-        <v>4.03074554610216</v>
+        <v>3.774915577854233</v>
       </c>
       <c r="J24">
-        <v>7.197133661896304</v>
+        <v>8.138783285072428</v>
       </c>
       <c r="K24">
-        <v>23.47526763520528</v>
+        <v>19.27741129934071</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.89328681953857</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.75571164969828</v>
       </c>
       <c r="N24">
-        <v>11.8758540732255</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.95854139884057</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.84132890904948</v>
       </c>
       <c r="Q24">
-        <v>13.00767161226878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.38836754501821</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.75091552862236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.22734071551965</v>
+        <v>22.32905287396695</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.995303226311067</v>
+        <v>3.886432309464453</v>
       </c>
       <c r="E25">
-        <v>31.97319599255126</v>
+        <v>27.62748816276956</v>
       </c>
       <c r="F25">
-        <v>17.1301161337639</v>
+        <v>17.93154404317855</v>
       </c>
       <c r="G25">
-        <v>22.24217614863885</v>
+        <v>24.0232711288464</v>
       </c>
       <c r="H25">
-        <v>2.407319094252123</v>
+        <v>2.263051432475049</v>
       </c>
       <c r="I25">
-        <v>4.263812724367014</v>
+        <v>3.970166526882712</v>
       </c>
       <c r="J25">
-        <v>6.95380618932507</v>
+        <v>8.017220675097789</v>
       </c>
       <c r="K25">
-        <v>22.42459908538105</v>
+        <v>18.6139247046515</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.86729680006215</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.71143021617022</v>
       </c>
       <c r="N25">
-        <v>10.87094756710989</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.47800293810205</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.933928844028159</v>
       </c>
       <c r="Q25">
-        <v>12.12337274440779</v>
+        <v>15.94226093526513</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.86861447169435</v>
       </c>
     </row>
   </sheetData>
